--- a/gunlukarapcakelimeler.xlsx
+++ b/gunlukarapcakelimeler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6907D8-F3D0-4ACB-A256-C87D98E4D4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEEDEC9-300F-4906-86C0-B28E19021AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -1729,15 +1729,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+    <sheetView tabSelected="1" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="9" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="11" customWidth="1"/>
     <col min="5" max="5" width="33.25" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="11"/>

--- a/gunlukarapcakelimeler.xlsx
+++ b/gunlukarapcakelimeler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEEDEC9-300F-4906-86C0-B28E19021AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6246EE46-BEBD-478C-AC6A-B5FE5B4E1FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="günlük arapça_1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'günlük arapça_1'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'günlük arapça_1'!$A$1:$E$236</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="470">
   <si>
     <t>arabic_word</t>
   </si>
@@ -1270,6 +1270,183 @@
   </si>
   <si>
     <t>رُمَّانٌ</t>
+  </si>
+  <si>
+    <t>Şişman</t>
+  </si>
+  <si>
+    <t>Kilo,ölçü</t>
+  </si>
+  <si>
+    <t>100 kilo</t>
+  </si>
+  <si>
+    <t>Ağırlık</t>
+  </si>
+  <si>
+    <t>Barbunya</t>
+  </si>
+  <si>
+    <t>Biber</t>
+  </si>
+  <si>
+    <t>Yeşil fasulye</t>
+  </si>
+  <si>
+    <t>Patlıcan</t>
+  </si>
+  <si>
+    <t>Bamya</t>
+  </si>
+  <si>
+    <t>Kabak</t>
+  </si>
+  <si>
+    <t>Patates</t>
+  </si>
+  <si>
+    <t>Maydanoz</t>
+  </si>
+  <si>
+    <t>Pırasa</t>
+  </si>
+  <si>
+    <t>Marul</t>
+  </si>
+  <si>
+    <t>Sebze</t>
+  </si>
+  <si>
+    <t>خَضْرَاوَاتٌ</t>
+  </si>
+  <si>
+    <t>خَسٌّ</t>
+  </si>
+  <si>
+    <t>كُرَّاثَةٌ</t>
+  </si>
+  <si>
+    <t>بَقْدُونِسٌ</t>
+  </si>
+  <si>
+    <t>بَطَاطِسٌ</t>
+  </si>
+  <si>
+    <t>قَرْعٌ</t>
+  </si>
+  <si>
+    <t>بَامْيَا</t>
+  </si>
+  <si>
+    <t>بَازِنْجَانٌ</t>
+  </si>
+  <si>
+    <t>فَاصُولْيَا</t>
+  </si>
+  <si>
+    <t>فُلْفُلٌ</t>
+  </si>
+  <si>
+    <t>لُوبِيَاء</t>
+  </si>
+  <si>
+    <t>وَزْنٌ</t>
+  </si>
+  <si>
+    <t>مِءَةُ كَيْلٍ</t>
+  </si>
+  <si>
+    <t>كَيْلٌ</t>
+  </si>
+  <si>
+    <t>سَمِيْنٌ</t>
+  </si>
+  <si>
+    <t>نَحِيفٌ</t>
+  </si>
+  <si>
+    <t>مُضِيفٌ</t>
+  </si>
+  <si>
+    <t>مُسَافِرٌ</t>
+  </si>
+  <si>
+    <t>طَلَبَ</t>
+  </si>
+  <si>
+    <t>فَضَّلَ</t>
+  </si>
+  <si>
+    <t>تَمْرٌ</t>
+  </si>
+  <si>
+    <t>اَلْقَهْوَةُ بِالْحَلِيبِ</t>
+  </si>
+  <si>
+    <t>حَلِيبَ</t>
+  </si>
+  <si>
+    <t>شَكَرَ</t>
+  </si>
+  <si>
+    <t>جَوْعَانُ</t>
+  </si>
+  <si>
+    <t>ثَبْعَانُ</t>
+  </si>
+  <si>
+    <t>مَاءِدَةٌ</t>
+  </si>
+  <si>
+    <t>ضَيْفٌ</t>
+  </si>
+  <si>
+    <t>حَوَّلَ</t>
+  </si>
+  <si>
+    <t>عَصِيرٌ</t>
+  </si>
+  <si>
+    <t>Zayıf</t>
+  </si>
+  <si>
+    <t>Ev sahibi;Host-Hostes</t>
+  </si>
+  <si>
+    <t>Yolcu</t>
+  </si>
+  <si>
+    <t>Bir şeyi bir şeye tercih etmek</t>
+  </si>
+  <si>
+    <t>Hurma</t>
+  </si>
+  <si>
+    <t>Sütlü kahve</t>
+  </si>
+  <si>
+    <t>Süt</t>
+  </si>
+  <si>
+    <t>Teşekkür etmek , Şükretmek</t>
+  </si>
+  <si>
+    <t>Aç</t>
+  </si>
+  <si>
+    <t>Tok</t>
+  </si>
+  <si>
+    <t>Sofra</t>
+  </si>
+  <si>
+    <t>Misafir,konuk</t>
+  </si>
+  <si>
+    <t>Meyve suyu</t>
+  </si>
+  <si>
+    <t>Değiştirmek</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1392,6 +1569,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1727,10 +1907,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14E0EA2-864E-4427-AE73-BA934C3F9A04}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E206"/>
+  <dimension ref="A1:E236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5"/>
@@ -4013,8 +4193,338 @@
         <v>210</v>
       </c>
     </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C207" s="11">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C208" s="11">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C209" s="11">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C210" s="11">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C211" s="11">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C212" s="11">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C213" s="11">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C214" s="11">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C215" s="11">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="C216" s="11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="C217" s="11">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="C218" s="11">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C219" s="11">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C220" s="11">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C221" s="11">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="C222" s="11">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C223" s="11">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C224" s="11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C225" s="11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C226" s="11">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="51.75">
+      <c r="A227" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C227" s="11">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="C228" s="11">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C229" s="11">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="C230" s="11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C231" s="11">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="C232" s="11">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C233" s="11">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C234" s="11">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C235" s="11">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C236" s="11">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{B14E0EA2-864E-4427-AE73-BA934C3F9A04}"/>
+  <autoFilter ref="A1:E236" xr:uid="{B14E0EA2-864E-4427-AE73-BA934C3F9A04}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D1:D2">
     <sortCondition descending="1" ref="D1:D2"/>
   </sortState>

--- a/gunlukarapcakelimeler.xlsx
+++ b/gunlukarapcakelimeler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6246EE46-BEBD-478C-AC6A-B5FE5B4E1FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2161A491-1793-43DA-A672-31833B57A966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="493">
   <si>
     <t>arabic_word</t>
   </si>
@@ -1447,13 +1447,82 @@
   </si>
   <si>
     <t>Değiştirmek</t>
+  </si>
+  <si>
+    <t>Beş vakit namaz</t>
+  </si>
+  <si>
+    <t>Güç yetirmek , yapabilmek</t>
+  </si>
+  <si>
+    <t>Gece</t>
+  </si>
+  <si>
+    <t>Gündüz</t>
+  </si>
+  <si>
+    <t>Çalar saat</t>
+  </si>
+  <si>
+    <t>Yan,Taraf,Bölüm,Kısım</t>
+  </si>
+  <si>
+    <t>Güzel fikir</t>
+  </si>
+  <si>
+    <t>Yolculuk yapmak,Seyahat etmek</t>
+  </si>
+  <si>
+    <t>Giden</t>
+  </si>
+  <si>
+    <t>Uzak</t>
+  </si>
+  <si>
+    <t>Uzak olmak</t>
+  </si>
+  <si>
+    <t>Yakin</t>
+  </si>
+  <si>
+    <t>Yakın olmak</t>
+  </si>
+  <si>
+    <t>Hasta</t>
+  </si>
+  <si>
+    <t>اَلصَّلَوَاتُ الْخَمْسَ</t>
+  </si>
+  <si>
+    <t>اِسْتَطَاعَ</t>
+  </si>
+  <si>
+    <t>لَيْلٌ</t>
+  </si>
+  <si>
+    <t>نَهَارٌ</t>
+  </si>
+  <si>
+    <t>مُنَبِّهٌ</t>
+  </si>
+  <si>
+    <t>جَانِبٌ</t>
+  </si>
+  <si>
+    <t>فَكْرَةٌ</t>
+  </si>
+  <si>
+    <t>سَافَ</t>
+  </si>
+  <si>
+    <t>زَاهِبٌ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1507,6 +1576,11 @@
       <color theme="1"/>
       <name val="Amiri Quran"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Amiri Quran"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1540,7 +1614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1570,6 +1644,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1907,10 +1984,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14E0EA2-864E-4427-AE73-BA934C3F9A04}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E236"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
-      <selection activeCell="B237" sqref="B237"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
+      <selection activeCell="A246" sqref="A246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5"/>
@@ -4523,6 +4600,150 @@
         <v>240</v>
       </c>
     </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C237" s="11">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C238" s="11">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C239" s="11">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C240" s="11">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="66">
+      <c r="A241" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="C241" s="11">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="C242" s="11">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="66">
+      <c r="A243" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="C243" s="11">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C244" s="11">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C245" s="11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="B246" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="C246" s="11">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="B247" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="C247" s="11">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="B248" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C248" s="11">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="B249" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C249" s="11">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="B250" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C250" s="11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="C251" s="11">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E236" xr:uid="{B14E0EA2-864E-4427-AE73-BA934C3F9A04}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D1:D2">

--- a/gunlukarapcakelimeler.xlsx
+++ b/gunlukarapcakelimeler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2161A491-1793-43DA-A672-31833B57A966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063C6C45-BC04-4176-A4C5-88D8488E7A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="günlük arapça_1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'günlük arapça_1'!$A$1:$E$236</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'günlük arapça_1'!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="615">
   <si>
     <t>arabic_word</t>
   </si>
@@ -1516,6 +1516,372 @@
   </si>
   <si>
     <t>زَاهِبٌ</t>
+  </si>
+  <si>
+    <t>بَعِيدٌ</t>
+  </si>
+  <si>
+    <t>بَعُدَ</t>
+  </si>
+  <si>
+    <t>قَرِيبٌ</t>
+  </si>
+  <si>
+    <t>قَرُبَ</t>
+  </si>
+  <si>
+    <t>مَرِيضٌ</t>
+  </si>
+  <si>
+    <t>مَرَضٌ</t>
+  </si>
+  <si>
+    <t>مَرِضَ</t>
+  </si>
+  <si>
+    <t>كَسْلاَنُ</t>
+  </si>
+  <si>
+    <t>مُجْتَهِدٌ</t>
+  </si>
+  <si>
+    <t>صَحِيحٌ</t>
+  </si>
+  <si>
+    <t>خَطَأٌ</t>
+  </si>
+  <si>
+    <t>آسِفٌ</t>
+  </si>
+  <si>
+    <t>اِنْتَظَرَ</t>
+  </si>
+  <si>
+    <t>سَمِعَ</t>
+  </si>
+  <si>
+    <t>اَهْلٌ</t>
+  </si>
+  <si>
+    <t>لَوْحَةٌ</t>
+  </si>
+  <si>
+    <t>اَلْجَدْوَلُ الدِّرَاسِيُّ</t>
+  </si>
+  <si>
+    <t>اَلْمَوَادُّ الدِّرَاسِيَّةُ</t>
+  </si>
+  <si>
+    <t>اَلثَّقَافَةُ الْإِسْلاَمِيَّةُ</t>
+  </si>
+  <si>
+    <t>Hastalık</t>
+  </si>
+  <si>
+    <t>Hasta olmak</t>
+  </si>
+  <si>
+    <t>Tembel</t>
+  </si>
+  <si>
+    <t>Çalışkan</t>
+  </si>
+  <si>
+    <t>Doğru</t>
+  </si>
+  <si>
+    <t>Yanlış</t>
+  </si>
+  <si>
+    <t>Üzgünüm</t>
+  </si>
+  <si>
+    <t>Beklemek</t>
+  </si>
+  <si>
+    <t>İşitmek, Dinlemek</t>
+  </si>
+  <si>
+    <t>Aile , Akrabalar</t>
+  </si>
+  <si>
+    <t>Pano , Levha</t>
+  </si>
+  <si>
+    <t>Ders proğramı</t>
+  </si>
+  <si>
+    <t>Dersler</t>
+  </si>
+  <si>
+    <t>İslami kültür</t>
+  </si>
+  <si>
+    <t>Matematik</t>
+  </si>
+  <si>
+    <t>Fen</t>
+  </si>
+  <si>
+    <t>Bilgisayar</t>
+  </si>
+  <si>
+    <t>Başlamak</t>
+  </si>
+  <si>
+    <t>İmtihan,Test</t>
+  </si>
+  <si>
+    <t>Bitmek</t>
+  </si>
+  <si>
+    <t>Vakit</t>
+  </si>
+  <si>
+    <t>Ders yılı</t>
+  </si>
+  <si>
+    <t>Uzun</t>
+  </si>
+  <si>
+    <t>Kısa</t>
+  </si>
+  <si>
+    <t>Ders saati</t>
+  </si>
+  <si>
+    <t>Sınıf , Derslik</t>
+  </si>
+  <si>
+    <t>Eğitim fakültesi</t>
+  </si>
+  <si>
+    <t>Tıp fakültesi</t>
+  </si>
+  <si>
+    <t>İlahiyat fakültesi</t>
+  </si>
+  <si>
+    <t>اَلرِّيَاضِيَّاتُ</t>
+  </si>
+  <si>
+    <t>اَلْعُلُومُ</t>
+  </si>
+  <si>
+    <t>اَلْحَاسُوبُ</t>
+  </si>
+  <si>
+    <t>بَدَأَ</t>
+  </si>
+  <si>
+    <t>اِخْتِبَارٌ</t>
+  </si>
+  <si>
+    <t>اِنْتَهَى</t>
+  </si>
+  <si>
+    <t>وَقْتُ</t>
+  </si>
+  <si>
+    <t>اَلْعَامُ الدِّرَاسِيُّ</t>
+  </si>
+  <si>
+    <t>طَوِيلٌ</t>
+  </si>
+  <si>
+    <t>قَصِيرٌ</t>
+  </si>
+  <si>
+    <t>حِصَّةٌ</t>
+  </si>
+  <si>
+    <t>صَفٌّ</t>
+  </si>
+  <si>
+    <t>كُلِّيَّةُ</t>
+  </si>
+  <si>
+    <t>كُلِّيَّةُ الطِّبّ</t>
+  </si>
+  <si>
+    <t>كُلِّيَّةُ الْإِلَهِيَّاتِ</t>
+  </si>
+  <si>
+    <t>Fiil</t>
+  </si>
+  <si>
+    <t>fiil</t>
+  </si>
+  <si>
+    <t>Fen fakültesi</t>
+  </si>
+  <si>
+    <t>Bilgisayar fakültesi</t>
+  </si>
+  <si>
+    <t>Arap dil fakültesi</t>
+  </si>
+  <si>
+    <t>Ders yapmak,Çalışmak,İncelemek</t>
+  </si>
+  <si>
+    <t>Olmak</t>
+  </si>
+  <si>
+    <t>Kütüphane</t>
+  </si>
+  <si>
+    <t>Laboratuar</t>
+  </si>
+  <si>
+    <t>Teneffüs,ara</t>
+  </si>
+  <si>
+    <t>Yararlanmak</t>
+  </si>
+  <si>
+    <t>Resimlerden yararlanarak</t>
+  </si>
+  <si>
+    <t>Şirket</t>
+  </si>
+  <si>
+    <t>Hastane</t>
+  </si>
+  <si>
+    <t>Sevmek,Hoşlanmak,İstemek</t>
+  </si>
+  <si>
+    <t>Eczane-Eczacılık fakültesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كُلِّيَّةُ الْحَاسُوبِ </t>
+  </si>
+  <si>
+    <t>كُلِّيَّةُ اللُّغَةِ الْعَرَبِيَّةِ</t>
+  </si>
+  <si>
+    <t>كُلِّيَّةُ الْعُاُومِ</t>
+  </si>
+  <si>
+    <t>دَرَسَ</t>
+  </si>
+  <si>
+    <t>كَانَ</t>
+  </si>
+  <si>
+    <t>مَكْتَبَةٌ</t>
+  </si>
+  <si>
+    <t>مُخْتَبَرٌ</t>
+  </si>
+  <si>
+    <t>اِسْتِرَاحَةٌ</t>
+  </si>
+  <si>
+    <t>اِسْتَعَانَ</t>
+  </si>
+  <si>
+    <t>مُسْتَعِينًا بِالصُّوَرِ</t>
+  </si>
+  <si>
+    <t>شَرِكَةٌ</t>
+  </si>
+  <si>
+    <t>مُسْتَشْفًى</t>
+  </si>
+  <si>
+    <t>أَحبَّ</t>
+  </si>
+  <si>
+    <t>صَيْدَلِيَّةٌ</t>
+  </si>
+  <si>
+    <t>Eczacı</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemşirelik </t>
+  </si>
+  <si>
+    <t>Hasta bakıcı</t>
+  </si>
+  <si>
+    <t>Mühendislik</t>
+  </si>
+  <si>
+    <t>Pilot</t>
+  </si>
+  <si>
+    <t>Uçak</t>
+  </si>
+  <si>
+    <t>Meslek</t>
+  </si>
+  <si>
+    <t>Marangoz</t>
+  </si>
+  <si>
+    <t>Demirci</t>
+  </si>
+  <si>
+    <t>Kalıpçı , sıhhi tesisatçı</t>
+  </si>
+  <si>
+    <t>Elektrikçi</t>
+  </si>
+  <si>
+    <t>صَيْدَلِيّ</t>
+  </si>
+  <si>
+    <t>تَمْرِيضٌ</t>
+  </si>
+  <si>
+    <t>مُمَرِّضٌ</t>
+  </si>
+  <si>
+    <t>هَنْدَسَةٌ</t>
+  </si>
+  <si>
+    <t>Mühendis</t>
+  </si>
+  <si>
+    <t>مُهَنْدِسٌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Havacılık </t>
+  </si>
+  <si>
+    <t>طَيَرَانٌ</t>
+  </si>
+  <si>
+    <t>طَيَّارٌ</t>
+  </si>
+  <si>
+    <t>طَاءِرَةٌ</t>
+  </si>
+  <si>
+    <t>مِهْنَةٌ</t>
+  </si>
+  <si>
+    <t>نَجَّارٌ</t>
+  </si>
+  <si>
+    <t>حَدَّادٌ</t>
+  </si>
+  <si>
+    <t>سَبَّاكٌ</t>
+  </si>
+  <si>
+    <t>كَهْرَبَاءِيٌّ</t>
+  </si>
+  <si>
+    <t>بَنَّاءٌ</t>
+  </si>
+  <si>
+    <t>İnşaatçı , mimar</t>
+  </si>
+  <si>
+    <t>sayfa no</t>
   </si>
 </sst>
 </file>
@@ -1546,39 +1912,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Amiri Quran"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arabic Typesetting"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Amiri Quran"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arabic Typesetting"/>
-      <family val="4"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Amiri Quran"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Amiri Quran"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Amiri Quran"/>
     </font>
   </fonts>
@@ -1614,40 +1979,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1984,2771 +2361,3744 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14E0EA2-864E-4427-AE73-BA934C3F9A04}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:D348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
-      <selection activeCell="A246" sqref="A246"/>
+    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="31.5"/>
+  <sheetFormatPr defaultRowHeight="36"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="11" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" s="5" customFormat="1">
-      <c r="A2" s="7" t="s">
+      <c r="D1" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3"/>
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" s="5" customFormat="1">
-      <c r="A3" s="7" t="s">
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:4" s="2" customFormat="1">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:4" s="2" customFormat="1">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:4" s="2" customFormat="1">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:4" s="2" customFormat="1">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:4" s="2" customFormat="1">
+      <c r="A8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D8" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="5" customFormat="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:4" s="2" customFormat="1">
+      <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D9" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="5" customFormat="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:4" s="2" customFormat="1">
+      <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D10" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:4" s="2" customFormat="1">
+      <c r="A11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D11" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="5" customFormat="1">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:4" s="2" customFormat="1">
+      <c r="A12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D12" s="10">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="5" customFormat="1">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:4" s="2" customFormat="1">
+      <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D13" s="10">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:4" s="2" customFormat="1">
+      <c r="A14" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D14" s="10">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="5" customFormat="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:4" s="2" customFormat="1">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5">
+      <c r="D15" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="5" customFormat="1">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:4" s="2" customFormat="1">
+      <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="5">
+      <c r="D16" s="10">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="5" customFormat="1">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:4" s="2" customFormat="1">
+      <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="5">
+      <c r="D17" s="10">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="5" customFormat="1">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:4" s="2" customFormat="1">
+      <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D18" s="10">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="5" customFormat="1">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:4" s="2" customFormat="1">
+      <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="5">
+      <c r="D19" s="10">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="5" customFormat="1">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:4" s="2" customFormat="1">
+      <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="5">
+      <c r="D20" s="10">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="5" customFormat="1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:4" s="2" customFormat="1">
+      <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="5">
+      <c r="D21" s="10">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="5" customFormat="1">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:4" s="2" customFormat="1">
+      <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="5">
+      <c r="D22" s="10">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="5" customFormat="1">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:4" s="2" customFormat="1">
+      <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="5">
+      <c r="D23" s="10">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="5" customFormat="1">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:4" s="2" customFormat="1">
+      <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="5">
+      <c r="D24" s="10">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="5" customFormat="1">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:4" s="2" customFormat="1">
+      <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D25" s="10">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="5" customFormat="1">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:4" s="2" customFormat="1">
+      <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D26" s="10">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="5" customFormat="1">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:4" s="2" customFormat="1">
+      <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D27" s="10">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="5" customFormat="1">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:4" s="2" customFormat="1">
+      <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="5">
+      <c r="D28" s="10">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="5" customFormat="1">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:4" s="2" customFormat="1">
+      <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="5">
+      <c r="D29" s="10">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="5" customFormat="1">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:4" s="2" customFormat="1">
+      <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="5">
+      <c r="D30" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="5" customFormat="1">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:4" s="2" customFormat="1">
+      <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="5">
+      <c r="D31" s="10">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="5" customFormat="1">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:4" s="2" customFormat="1">
+      <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="5">
+      <c r="D32" s="10">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="5" customFormat="1">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:4" s="2" customFormat="1">
+      <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="5">
+      <c r="D33" s="10">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="5" customFormat="1">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:4" s="2" customFormat="1">
+      <c r="A34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="5">
+      <c r="D34" s="10">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="5" customFormat="1">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:4" s="2" customFormat="1">
+      <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="5">
+      <c r="D35" s="10">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="5" customFormat="1">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:4" s="2" customFormat="1">
+      <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="5">
+      <c r="D36" s="10">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="5" customFormat="1">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:4" s="2" customFormat="1">
+      <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="5">
+      <c r="D37" s="10">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="5" customFormat="1">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:4" s="2" customFormat="1">
+      <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="5">
+      <c r="D38" s="10">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="5" customFormat="1">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:4" s="2" customFormat="1">
+      <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C39" s="5">
+      <c r="D39" s="10">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="5" customFormat="1">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:4" s="2" customFormat="1">
+      <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="5">
+      <c r="D40" s="10">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="5" customFormat="1">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:4" s="2" customFormat="1">
+      <c r="A41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="5">
+      <c r="D41" s="10">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="5" customFormat="1">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:4" s="2" customFormat="1">
+      <c r="A42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="5">
+      <c r="D42" s="10">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="5" customFormat="1">
-      <c r="A43" s="7" t="s">
+    <row r="43" spans="1:4" s="2" customFormat="1">
+      <c r="A43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="5">
+      <c r="D43" s="10">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="5" customFormat="1">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:4" s="2" customFormat="1">
+      <c r="A44" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="5">
+      <c r="D44" s="10">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="5" customFormat="1">
-      <c r="A45" s="7" t="s">
+    <row r="45" spans="1:4" s="2" customFormat="1">
+      <c r="A45" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="5">
+      <c r="D45" s="10">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="5" customFormat="1">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:4" s="2" customFormat="1">
+      <c r="A46" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="5">
+      <c r="D46" s="10">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="5" customFormat="1">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:4" s="2" customFormat="1">
+      <c r="A47" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="5">
+      <c r="D47" s="10">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="5" customFormat="1">
-      <c r="A48" s="7" t="s">
+    <row r="48" spans="1:4" s="2" customFormat="1">
+      <c r="A48" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D48" s="10">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="5" customFormat="1">
-      <c r="A49" s="7" t="s">
+    <row r="49" spans="1:4" s="2" customFormat="1">
+      <c r="A49" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D49" s="10">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="5" customFormat="1">
-      <c r="A50" s="7" t="s">
+    <row r="50" spans="1:4" s="2" customFormat="1">
+      <c r="A50" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="5">
+      <c r="D50" s="10">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="5" customFormat="1">
-      <c r="A51" s="7" t="s">
+    <row r="51" spans="1:4" s="2" customFormat="1">
+      <c r="A51" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C51" s="5">
+      <c r="D51" s="10">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="5" customFormat="1">
-      <c r="A52" s="7" t="s">
+    <row r="52" spans="1:4" s="2" customFormat="1">
+      <c r="A52" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="5">
+      <c r="D52" s="10">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="5" customFormat="1">
-      <c r="A53" s="7" t="s">
+    <row r="53" spans="1:4" s="2" customFormat="1">
+      <c r="A53" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="5">
+      <c r="D53" s="10">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="5" customFormat="1">
-      <c r="A54" s="7" t="s">
+    <row r="54" spans="1:4" s="2" customFormat="1">
+      <c r="A54" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="5">
+      <c r="D54" s="10">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="5" customFormat="1">
-      <c r="A55" s="7" t="s">
+    <row r="55" spans="1:4" s="2" customFormat="1">
+      <c r="A55" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C55" s="5">
+      <c r="D55" s="10">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="5" customFormat="1">
-      <c r="A56" s="7" t="s">
+    <row r="56" spans="1:4" s="2" customFormat="1">
+      <c r="A56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="5">
+      <c r="D56" s="10">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="5" customFormat="1">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:4" s="2" customFormat="1">
+      <c r="A57" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="5">
+      <c r="D57" s="10">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="5" customFormat="1">
-      <c r="A58" s="7" t="s">
+    <row r="58" spans="1:4" s="2" customFormat="1">
+      <c r="A58" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C58" s="5">
+      <c r="D58" s="10">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="5" customFormat="1">
-      <c r="A59" s="7" t="s">
+    <row r="59" spans="1:4" s="2" customFormat="1">
+      <c r="A59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="5">
+      <c r="D59" s="10">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="5" customFormat="1">
-      <c r="A60" s="7" t="s">
+    <row r="60" spans="1:4" s="2" customFormat="1">
+      <c r="A60" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="5">
+      <c r="D60" s="10">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="5" customFormat="1">
-      <c r="A61" s="7" t="s">
+    <row r="61" spans="1:4" s="2" customFormat="1">
+      <c r="A61" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="5">
+      <c r="D61" s="10">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="5" customFormat="1">
-      <c r="A62" s="7" t="s">
+    <row r="62" spans="1:4" s="2" customFormat="1">
+      <c r="A62" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C62" s="5">
+      <c r="D62" s="10">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="5" customFormat="1">
-      <c r="A63" s="7" t="s">
+    <row r="63" spans="1:4" s="2" customFormat="1">
+      <c r="A63" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="5">
+      <c r="D63" s="10">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="5" customFormat="1">
-      <c r="A64" s="7" t="s">
+    <row r="64" spans="1:4" s="2" customFormat="1">
+      <c r="A64" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D64" s="10">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="5" customFormat="1">
-      <c r="A65" s="7" t="s">
+    <row r="65" spans="1:4" s="2" customFormat="1">
+      <c r="A65" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C65" s="5">
+      <c r="D65" s="10">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="5" customFormat="1">
-      <c r="A66" s="7" t="s">
+    <row r="66" spans="1:4" s="2" customFormat="1">
+      <c r="A66" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C66" s="5">
+      <c r="D66" s="10">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="5" customFormat="1">
-      <c r="A67" s="7" t="s">
+    <row r="67" spans="1:4" s="2" customFormat="1">
+      <c r="A67" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C67" s="5">
+      <c r="D67" s="10">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="5" customFormat="1">
-      <c r="A68" s="7" t="s">
+    <row r="68" spans="1:4" s="2" customFormat="1">
+      <c r="A68" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C68" s="5">
+      <c r="D68" s="10">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="5" customFormat="1">
-      <c r="A69" s="7" t="s">
+    <row r="69" spans="1:4" s="2" customFormat="1">
+      <c r="A69" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="5">
+      <c r="D69" s="10">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="5" customFormat="1">
-      <c r="A70" s="7" t="s">
+    <row r="70" spans="1:4" s="2" customFormat="1">
+      <c r="A70" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D70" s="10">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="5" customFormat="1">
-      <c r="A71" s="7" t="s">
+    <row r="71" spans="1:4" s="2" customFormat="1">
+      <c r="A71" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D71" s="10">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="5" customFormat="1">
-      <c r="A72" s="7" t="s">
+    <row r="72" spans="1:4" s="2" customFormat="1">
+      <c r="A72" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C72" s="5">
+      <c r="D72" s="10">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="5" customFormat="1">
-      <c r="A73" s="7" t="s">
+    <row r="73" spans="1:4" s="2" customFormat="1">
+      <c r="A73" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C73" s="5">
+      <c r="D73" s="10">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="5" customFormat="1">
-      <c r="A74" s="7" t="s">
+    <row r="74" spans="1:4" s="2" customFormat="1">
+      <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C74" s="5">
+      <c r="D74" s="10">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="5" customFormat="1">
-      <c r="A75" s="7" t="s">
+    <row r="75" spans="1:4" s="2" customFormat="1">
+      <c r="A75" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="5">
+      <c r="D75" s="10">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="5" customFormat="1">
-      <c r="A76" s="7" t="s">
+    <row r="76" spans="1:4" s="2" customFormat="1">
+      <c r="A76" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C76" s="5">
+      <c r="D76" s="10">
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="5" customFormat="1">
-      <c r="A77" s="7" t="s">
+    <row r="77" spans="1:4" s="2" customFormat="1">
+      <c r="A77" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="5">
+      <c r="D77" s="10">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="5" customFormat="1">
-      <c r="A78" s="7" t="s">
+    <row r="78" spans="1:4" s="2" customFormat="1">
+      <c r="A78" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C78" s="5">
+      <c r="D78" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="5" customFormat="1">
-      <c r="A79" s="7" t="s">
+    <row r="79" spans="1:4" s="2" customFormat="1">
+      <c r="A79" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C79" s="5">
+      <c r="D79" s="10">
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="5" customFormat="1">
-      <c r="A80" s="7" t="s">
+    <row r="80" spans="1:4" s="2" customFormat="1">
+      <c r="A80" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C80" s="5">
+      <c r="D80" s="10">
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="5" customFormat="1">
-      <c r="A81" s="7" t="s">
+    <row r="81" spans="1:4" s="2" customFormat="1">
+      <c r="A81" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C81" s="5">
+      <c r="D81" s="10">
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="5" customFormat="1">
-      <c r="A82" s="7" t="s">
+    <row r="82" spans="1:4" s="2" customFormat="1">
+      <c r="A82" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C82" s="5">
+      <c r="D82" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="5" customFormat="1">
-      <c r="A83" s="7" t="s">
+    <row r="83" spans="1:4" s="2" customFormat="1">
+      <c r="A83" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C83" s="5">
+      <c r="D83" s="10">
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="5" customFormat="1">
-      <c r="A84" s="7" t="s">
+    <row r="84" spans="1:4" s="2" customFormat="1">
+      <c r="A84" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="5">
+      <c r="D84" s="10">
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="5" customFormat="1">
-      <c r="A85" s="7" t="s">
+    <row r="85" spans="1:4" s="2" customFormat="1">
+      <c r="A85" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="5">
+      <c r="D85" s="10">
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="5" customFormat="1">
-      <c r="A86" s="7" t="s">
+    <row r="86" spans="1:4" s="2" customFormat="1">
+      <c r="A86" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C86" s="5">
+      <c r="D86" s="10">
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="5" customFormat="1">
-      <c r="A87" s="7" t="s">
+    <row r="87" spans="1:4" s="2" customFormat="1">
+      <c r="A87" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C87" s="5">
+      <c r="D87" s="10">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="5" customFormat="1">
-      <c r="A88" s="7" t="s">
+    <row r="88" spans="1:4" s="2" customFormat="1">
+      <c r="A88" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C88" s="5">
+      <c r="D88" s="10">
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="5" customFormat="1">
-      <c r="A89" s="7" t="s">
+    <row r="89" spans="1:4" s="2" customFormat="1">
+      <c r="A89" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="5">
+      <c r="D89" s="10">
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="5" customFormat="1">
-      <c r="A90" s="7" t="s">
+    <row r="90" spans="1:4" s="2" customFormat="1">
+      <c r="A90" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C90" s="5">
+      <c r="D90" s="10">
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="5" customFormat="1">
-      <c r="A91" s="7" t="s">
+    <row r="91" spans="1:4" s="2" customFormat="1">
+      <c r="A91" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C91" s="5">
+      <c r="D91" s="10">
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="5" customFormat="1">
-      <c r="A92" s="7" t="s">
+    <row r="92" spans="1:4" s="2" customFormat="1">
+      <c r="A92" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C92" s="5">
+      <c r="D92" s="10">
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="5" customFormat="1">
-      <c r="A93" s="7" t="s">
+    <row r="93" spans="1:4" s="2" customFormat="1">
+      <c r="A93" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C93" s="5">
+      <c r="D93" s="10">
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="5" customFormat="1">
-      <c r="A94" s="7" t="s">
+    <row r="94" spans="1:4" s="2" customFormat="1">
+      <c r="A94" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C94" s="5">
+      <c r="D94" s="10">
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="5" customFormat="1">
-      <c r="A95" s="7" t="s">
+    <row r="95" spans="1:4" s="2" customFormat="1">
+      <c r="A95" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C95" s="5">
+      <c r="D95" s="10">
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="5" customFormat="1">
-      <c r="A96" s="7" t="s">
+    <row r="96" spans="1:4" s="2" customFormat="1">
+      <c r="A96" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C96" s="5">
+      <c r="D96" s="10">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:3" s="5" customFormat="1">
-      <c r="A97" s="7" t="s">
+    <row r="97" spans="1:4" s="2" customFormat="1">
+      <c r="A97" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C97" s="5">
+      <c r="D97" s="10">
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:3" s="5" customFormat="1">
-      <c r="A98" s="7" t="s">
+    <row r="98" spans="1:4" s="2" customFormat="1">
+      <c r="A98" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C98" s="5">
+      <c r="D98" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:3" s="5" customFormat="1">
-      <c r="A99" s="7" t="s">
+    <row r="99" spans="1:4" s="2" customFormat="1">
+      <c r="A99" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C99" s="5">
+      <c r="D99" s="10">
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="5" customFormat="1">
-      <c r="A100" s="7" t="s">
+    <row r="100" spans="1:4" s="2" customFormat="1">
+      <c r="A100" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C100" s="5">
+      <c r="D100" s="10">
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="5" customFormat="1">
-      <c r="A101" s="7" t="s">
+    <row r="101" spans="1:4" s="2" customFormat="1">
+      <c r="A101" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C101" s="5">
+      <c r="D101" s="10">
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="5" customFormat="1">
-      <c r="A102" s="7" t="s">
+    <row r="102" spans="1:4" s="2" customFormat="1">
+      <c r="A102" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C102" s="5">
+      <c r="D102" s="10">
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="5" customFormat="1">
-      <c r="A103" s="7" t="s">
+    <row r="103" spans="1:4" s="2" customFormat="1">
+      <c r="A103" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C103" s="5">
+      <c r="D103" s="10">
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="5" customFormat="1">
-      <c r="A104" s="7" t="s">
+    <row r="104" spans="1:4" s="2" customFormat="1">
+      <c r="A104" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C104" s="5">
+      <c r="D104" s="10">
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="5" customFormat="1">
-      <c r="A105" s="7" t="s">
+    <row r="105" spans="1:4" s="2" customFormat="1">
+      <c r="A105" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="C105" s="5">
+      <c r="D105" s="10">
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="5" customFormat="1">
-      <c r="A106" s="7" t="s">
+    <row r="106" spans="1:4" s="2" customFormat="1">
+      <c r="A106" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C106" s="5">
+      <c r="D106" s="10">
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="5" customFormat="1">
-      <c r="A107" s="7" t="s">
+    <row r="107" spans="1:4" s="2" customFormat="1">
+      <c r="A107" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C107" s="5">
+      <c r="D107" s="10">
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="5" customFormat="1">
-      <c r="A108" s="7" t="s">
+    <row r="108" spans="1:4" s="2" customFormat="1">
+      <c r="A108" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C108" s="5">
+      <c r="D108" s="10">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:3" s="5" customFormat="1">
-      <c r="A109" s="7" t="s">
+    <row r="109" spans="1:4" s="2" customFormat="1">
+      <c r="A109" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C109" s="5">
+      <c r="D109" s="10">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="1:3" s="5" customFormat="1">
-      <c r="A110" s="7" t="s">
+    <row r="110" spans="1:4" s="2" customFormat="1">
+      <c r="A110" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="C110" s="5">
+      <c r="D110" s="10">
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="5" customFormat="1">
-      <c r="A111" s="7" t="s">
+    <row r="111" spans="1:4" s="2" customFormat="1">
+      <c r="A111" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C111" s="5">
+      <c r="D111" s="10">
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="1:3" s="5" customFormat="1">
-      <c r="A112" s="7" t="s">
+    <row r="112" spans="1:4" s="2" customFormat="1">
+      <c r="A112" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C112" s="5">
+      <c r="D112" s="10">
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:3" s="5" customFormat="1">
-      <c r="A113" s="7" t="s">
+    <row r="113" spans="1:4" s="2" customFormat="1">
+      <c r="A113" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C113" s="5">
+      <c r="D113" s="10">
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:3" s="5" customFormat="1">
-      <c r="A114" s="7" t="s">
+    <row r="114" spans="1:4" s="2" customFormat="1">
+      <c r="A114" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C114" s="5">
+      <c r="D114" s="10">
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="5" customFormat="1">
-      <c r="A115" s="7" t="s">
+    <row r="115" spans="1:4" s="2" customFormat="1">
+      <c r="A115" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="C115" s="5">
+      <c r="D115" s="10">
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="1:3" s="5" customFormat="1">
-      <c r="A116" s="7" t="s">
+    <row r="116" spans="1:4" s="2" customFormat="1">
+      <c r="A116" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C116" s="5">
+      <c r="D116" s="10">
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:3" s="5" customFormat="1">
-      <c r="A117" s="7" t="s">
+    <row r="117" spans="1:4" s="2" customFormat="1">
+      <c r="A117" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C117" s="5">
+      <c r="D117" s="10">
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:3" s="5" customFormat="1">
-      <c r="A118" s="7" t="s">
+    <row r="118" spans="1:4" s="2" customFormat="1">
+      <c r="A118" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C118" s="5">
+      <c r="D118" s="10">
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A119" s="8" t="s">
+    <row r="119" spans="1:4" s="2" customFormat="1">
+      <c r="A119" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="C119" s="5">
+      <c r="D119" s="10">
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A120" s="8" t="s">
+    <row r="120" spans="1:4" s="2" customFormat="1">
+      <c r="A120" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="C120" s="5">
+      <c r="D120" s="10">
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A121" s="8" t="s">
+    <row r="121" spans="1:4" s="2" customFormat="1">
+      <c r="A121" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C121" s="5">
+      <c r="D121" s="10">
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A122" s="8" t="s">
+    <row r="122" spans="1:4" s="2" customFormat="1">
+      <c r="A122" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C122" s="5">
+      <c r="D122" s="10">
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A123" s="8" t="s">
+    <row r="123" spans="1:4" s="2" customFormat="1">
+      <c r="A123" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D123" s="10">
         <v>125</v>
       </c>
     </row>
-    <row r="124" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A124" s="8" t="s">
+    <row r="124" spans="1:4" s="2" customFormat="1" ht="41.25">
+      <c r="A124" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D124" s="10">
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A125" s="8" t="s">
+    <row r="125" spans="1:4" s="2" customFormat="1">
+      <c r="A125" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C125" s="5">
+      <c r="D125" s="10">
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A126" s="8" t="s">
+    <row r="126" spans="1:4" s="2" customFormat="1">
+      <c r="A126" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C126" s="5">
+      <c r="D126" s="10">
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A127" s="8" t="s">
+    <row r="127" spans="1:4" s="2" customFormat="1">
+      <c r="A127" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C127" s="5">
+      <c r="D127" s="10">
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A128" s="8" t="s">
+    <row r="128" spans="1:4" s="2" customFormat="1">
+      <c r="A128" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C128" s="5">
+      <c r="D128" s="10">
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A129" s="8" t="s">
+    <row r="129" spans="1:4" s="2" customFormat="1">
+      <c r="A129" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C129" s="5">
+      <c r="D129" s="10">
         <v>132</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A130" s="8" t="s">
+    <row r="130" spans="1:4" s="2" customFormat="1">
+      <c r="A130" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D130" s="10">
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A131" s="8" t="s">
+    <row r="131" spans="1:4" s="2" customFormat="1">
+      <c r="A131" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D131" s="10">
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A132" s="8" t="s">
+    <row r="132" spans="1:4" s="2" customFormat="1">
+      <c r="A132" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D132" s="10">
         <v>135</v>
       </c>
     </row>
-    <row r="133" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A133" s="8" t="s">
+    <row r="133" spans="1:4" s="2" customFormat="1">
+      <c r="A133" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D133" s="10">
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A134" s="8" t="s">
+    <row r="134" spans="1:4" s="2" customFormat="1">
+      <c r="A134" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D134" s="10">
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A135" s="8" t="s">
+    <row r="135" spans="1:4" s="2" customFormat="1">
+      <c r="A135" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C135" s="5">
+      <c r="D135" s="10">
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A136" s="8" t="s">
+    <row r="136" spans="1:4" s="2" customFormat="1">
+      <c r="A136" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C136" s="5">
+      <c r="D136" s="10">
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A137" s="8" t="s">
+    <row r="137" spans="1:4" s="2" customFormat="1">
+      <c r="A137" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C137" s="5">
+      <c r="D137" s="10">
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A138" s="8" t="s">
+    <row r="138" spans="1:4" s="2" customFormat="1">
+      <c r="A138" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C138" s="5">
+      <c r="D138" s="10">
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A139" s="8" t="s">
+    <row r="139" spans="1:4" s="2" customFormat="1">
+      <c r="A139" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C139" s="5">
+      <c r="D139" s="10">
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A140" s="8" t="s">
+    <row r="140" spans="1:4" s="2" customFormat="1">
+      <c r="A140" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C140" s="5">
+      <c r="D140" s="10">
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A141" s="8" t="s">
+    <row r="141" spans="1:4" s="2" customFormat="1">
+      <c r="A141" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C141" s="5">
+      <c r="D141" s="10">
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A142" s="8" t="s">
+    <row r="142" spans="1:4" s="2" customFormat="1">
+      <c r="A142" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D142" s="10">
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A143" s="8" t="s">
+    <row r="143" spans="1:4" s="2" customFormat="1">
+      <c r="A143" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="C143" s="5">
+      <c r="C143" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D143" s="10">
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A144" s="8" t="s">
+    <row r="144" spans="1:4" s="2" customFormat="1">
+      <c r="A144" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D144" s="10">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A145" s="8" t="s">
+    <row r="145" spans="1:4" s="2" customFormat="1">
+      <c r="A145" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C145" s="5">
+      <c r="D145" s="10">
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A146" s="8" t="s">
+    <row r="146" spans="1:4" s="2" customFormat="1">
+      <c r="A146" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D146" s="10">
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:3" s="5" customFormat="1" ht="51.75">
-      <c r="A147" s="8" t="s">
+    <row r="147" spans="1:4" s="2" customFormat="1">
+      <c r="A147" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C147" s="5">
+      <c r="D147" s="10">
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="51.75">
-      <c r="A148" s="8" t="s">
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C148" s="11">
+      <c r="D148" s="11">
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="51.75">
-      <c r="A149" s="8" t="s">
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C149" s="11">
+      <c r="D149" s="11">
         <v>152</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="51.75">
-      <c r="A150" s="8" t="s">
+    <row r="150" spans="1:4">
+      <c r="A150" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C150" s="11">
+      <c r="D150" s="11">
         <v>153</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="51.75">
-      <c r="A151" s="8" t="s">
+    <row r="151" spans="1:4">
+      <c r="A151" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="C151" s="11">
+      <c r="D151" s="11">
         <v>154</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="51.75">
-      <c r="A152" s="8" t="s">
+    <row r="152" spans="1:4">
+      <c r="A152" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C152" s="11">
+      <c r="D152" s="11">
         <v>155</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="51.75">
-      <c r="A153" s="8" t="s">
+    <row r="153" spans="1:4">
+      <c r="A153" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C153" s="11">
+      <c r="D153" s="11">
         <v>156</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="51.75">
-      <c r="A154" s="8" t="s">
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C154" s="11">
+      <c r="D154" s="11">
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="51.75">
-      <c r="A155" s="8" t="s">
+    <row r="155" spans="1:4">
+      <c r="A155" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="C155" s="11">
+      <c r="D155" s="11">
         <v>158</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="51.75">
-      <c r="A156" s="8" t="s">
+    <row r="156" spans="1:4">
+      <c r="A156" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C156" s="11">
+      <c r="D156" s="11">
         <v>159</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="51.75">
-      <c r="A157" s="8" t="s">
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="C157" s="11">
+      <c r="D157" s="11">
         <v>160</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="51.75">
-      <c r="A158" s="8" t="s">
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C158" s="11">
+      <c r="D158" s="11">
         <v>161</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="51.75">
-      <c r="A159" s="8" t="s">
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="C159" s="11">
+      <c r="D159" s="11">
         <v>162</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="51.75">
-      <c r="A160" s="8" t="s">
+    <row r="160" spans="1:4">
+      <c r="A160" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C160" s="11">
+      <c r="D160" s="11">
         <v>163</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="51.75">
-      <c r="A161" s="8" t="s">
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="C161" s="11">
+      <c r="D161" s="11">
         <v>164</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="51.75">
-      <c r="A162" s="8" t="s">
+    <row r="162" spans="1:4">
+      <c r="A162" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C162" s="11">
+      <c r="D162" s="11">
         <v>165</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="51.75">
-      <c r="A163" s="8" t="s">
+    <row r="163" spans="1:4">
+      <c r="A163" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C163" s="11">
+      <c r="D163" s="11">
         <v>166</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="51.75">
-      <c r="A164" s="8" t="s">
+    <row r="164" spans="1:4">
+      <c r="A164" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C164" s="11">
+      <c r="D164" s="11">
         <v>167</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="51.75">
-      <c r="A165" s="8" t="s">
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C165" s="11">
+      <c r="D165" s="11">
         <v>168</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="51.75">
-      <c r="A166" s="8" t="s">
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C166" s="11">
+      <c r="D166" s="11">
         <v>169</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="51.75">
-      <c r="A167" s="8" t="s">
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B167" s="10" t="s">
+      <c r="B167" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C167" s="11">
+      <c r="D167" s="11">
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="51.75">
-      <c r="A168" s="8" t="s">
+    <row r="168" spans="1:4">
+      <c r="A168" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C168" s="11">
+      <c r="D168" s="11">
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="51.75">
-      <c r="A169" s="8" t="s">
+    <row r="169" spans="1:4">
+      <c r="A169" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B169" s="10" t="s">
+      <c r="B169" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C169" s="11">
+      <c r="D169" s="11">
         <v>172</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="51.75">
-      <c r="A170" s="8" t="s">
+    <row r="170" spans="1:4">
+      <c r="A170" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C170" s="11">
+      <c r="D170" s="11">
         <v>173</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="51.75">
-      <c r="A171" s="8" t="s">
+    <row r="171" spans="1:4">
+      <c r="A171" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C171" s="11">
+      <c r="D171" s="11">
         <v>174</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="51.75">
-      <c r="A172" s="8" t="s">
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C172" s="11">
+      <c r="D172" s="11">
         <v>175</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="51.75">
-      <c r="A173" s="8" t="s">
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C173" s="11">
+      <c r="D173" s="11">
         <v>176</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="51.75">
-      <c r="A174" s="8" t="s">
+    <row r="174" spans="1:4">
+      <c r="A174" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C174" s="11">
+      <c r="D174" s="11">
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="51.75">
-      <c r="A175" s="8" t="s">
+    <row r="175" spans="1:4">
+      <c r="A175" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C175" s="11">
+      <c r="D175" s="11">
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="51.75">
-      <c r="A176" s="8" t="s">
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C176" s="11">
+      <c r="D176" s="11">
         <v>179</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="51.75">
-      <c r="A177" s="8" t="s">
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="B177" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C177" s="11">
+      <c r="D177" s="11">
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="51.75">
-      <c r="A178" s="8" t="s">
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C178" s="11">
+      <c r="D178" s="11">
         <v>181</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="51.75">
-      <c r="A179" s="8" t="s">
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B179" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C179" s="11">
+      <c r="D179" s="11">
         <v>183</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="51.75">
-      <c r="A180" s="8" t="s">
+    <row r="180" spans="1:4">
+      <c r="A180" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C180" s="11">
+      <c r="D180" s="11">
         <v>184</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="51.75">
-      <c r="A181" s="8" t="s">
+    <row r="181" spans="1:4">
+      <c r="A181" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C181" s="11">
+      <c r="D181" s="11">
         <v>185</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="51.75">
-      <c r="A182" s="8" t="s">
+    <row r="182" spans="1:4">
+      <c r="A182" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="B182" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C182" s="11">
+      <c r="C182" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D182" s="11">
         <v>186</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="51.75">
-      <c r="A183" s="8" t="s">
+    <row r="183" spans="1:4">
+      <c r="A183" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="B183" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C183" s="11">
+      <c r="C183" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D183" s="11">
         <v>187</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="51.75">
-      <c r="A184" s="8" t="s">
+    <row r="184" spans="1:4">
+      <c r="A184" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="C184" s="11">
+      <c r="D184" s="11">
         <v>188</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="51.75">
-      <c r="A185" s="8" t="s">
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C185" s="11">
+      <c r="D185" s="11">
         <v>189</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="51.75">
-      <c r="A186" s="8" t="s">
+    <row r="186" spans="1:4">
+      <c r="A186" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C186" s="11">
+      <c r="D186" s="11">
         <v>190</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="51.75">
-      <c r="A187" s="8" t="s">
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C187" s="11">
+      <c r="D187" s="11">
         <v>191</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="51.75">
-      <c r="A188" s="8" t="s">
+    <row r="188" spans="1:4">
+      <c r="A188" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="C188" s="11">
+      <c r="D188" s="11">
         <v>192</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="51.75">
-      <c r="A189" s="8" t="s">
+    <row r="189" spans="1:4">
+      <c r="A189" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C189" s="11">
+      <c r="D189" s="11">
         <v>193</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="51.75">
-      <c r="A190" s="8" t="s">
+    <row r="190" spans="1:4">
+      <c r="A190" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B190" s="10" t="s">
+      <c r="B190" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C190" s="11">
+      <c r="D190" s="11">
         <v>194</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="51.75">
-      <c r="A191" s="8" t="s">
+    <row r="191" spans="1:4">
+      <c r="A191" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C191" s="11">
+      <c r="D191" s="11">
         <v>195</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="51.75">
-      <c r="A192" s="8" t="s">
+    <row r="192" spans="1:4">
+      <c r="A192" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C192" s="11">
+      <c r="D192" s="11">
         <v>196</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="51.75">
-      <c r="A193" s="8" t="s">
+    <row r="193" spans="1:4">
+      <c r="A193" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C193" s="11">
+      <c r="D193" s="11">
         <v>197</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="51.75">
-      <c r="A194" s="8" t="s">
+    <row r="194" spans="1:4">
+      <c r="A194" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C194" s="11">
+      <c r="D194" s="11">
         <v>198</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="51.75">
-      <c r="A195" s="8" t="s">
+    <row r="195" spans="1:4">
+      <c r="A195" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C195" s="11">
+      <c r="D195" s="11">
         <v>199</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="51.75">
-      <c r="A196" s="8" t="s">
+    <row r="196" spans="1:4">
+      <c r="A196" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="C196" s="11">
+      <c r="D196" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="51.75">
-      <c r="A197" s="8" t="s">
+    <row r="197" spans="1:4">
+      <c r="A197" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="B197" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C197" s="11">
+      <c r="D197" s="11">
         <v>201</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="51.75">
-      <c r="A198" s="8" t="s">
+    <row r="198" spans="1:4">
+      <c r="A198" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="C198" s="11">
+      <c r="D198" s="11">
         <v>202</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="51.75">
-      <c r="A199" s="8" t="s">
+    <row r="199" spans="1:4">
+      <c r="A199" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B199" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="C199" s="11">
+      <c r="D199" s="11">
         <v>203</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="51.75">
-      <c r="A200" s="8" t="s">
+    <row r="200" spans="1:4">
+      <c r="A200" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C200" s="11">
+      <c r="D200" s="11">
         <v>204</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="51.75">
-      <c r="A201" s="8" t="s">
+    <row r="201" spans="1:4">
+      <c r="A201" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B201" s="10" t="s">
+      <c r="B201" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="C201" s="11">
+      <c r="D201" s="11">
         <v>205</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="51.75">
-      <c r="A202" s="8" t="s">
+    <row r="202" spans="1:4">
+      <c r="A202" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="B202" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C202" s="11">
+      <c r="D202" s="11">
         <v>206</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="51.75">
-      <c r="A203" s="8" t="s">
+    <row r="203" spans="1:4">
+      <c r="A203" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B203" s="10" t="s">
+      <c r="B203" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="C203" s="11">
+      <c r="D203" s="11">
         <v>207</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="51.75">
-      <c r="A204" s="8" t="s">
+    <row r="204" spans="1:4">
+      <c r="A204" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="B204" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C204" s="11">
+      <c r="D204" s="11">
         <v>208</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="51.75">
-      <c r="A205" s="8" t="s">
+    <row r="205" spans="1:4">
+      <c r="A205" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="B205" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="C205" s="11">
+      <c r="D205" s="11">
         <v>209</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="51.75">
-      <c r="A206" s="8" t="s">
+    <row r="206" spans="1:4">
+      <c r="A206" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="C206" s="11">
+      <c r="D206" s="11">
         <v>210</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="9" t="s">
+    <row r="207" spans="1:4">
+      <c r="A207" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C207" s="11">
+      <c r="D207" s="11">
         <v>211</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="9" t="s">
+    <row r="208" spans="1:4">
+      <c r="A208" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B208" s="10" t="s">
+      <c r="B208" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="C208" s="11">
+      <c r="D208" s="11">
         <v>212</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="9" t="s">
+    <row r="209" spans="1:4">
+      <c r="A209" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B209" s="10" t="s">
+      <c r="B209" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="C209" s="11">
+      <c r="D209" s="11">
         <v>213</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="9" t="s">
+    <row r="210" spans="1:4">
+      <c r="A210" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C210" s="11">
+      <c r="D210" s="11">
         <v>214</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="9" t="s">
+    <row r="211" spans="1:4">
+      <c r="A211" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="B211" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C211" s="11">
+      <c r="D211" s="11">
         <v>215</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="9" t="s">
+    <row r="212" spans="1:4">
+      <c r="A212" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="B212" s="10" t="s">
+      <c r="B212" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C212" s="11">
+      <c r="D212" s="11">
         <v>216</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="9" t="s">
+    <row r="213" spans="1:4">
+      <c r="A213" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B213" s="10" t="s">
+      <c r="B213" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C213" s="11">
+      <c r="D213" s="11">
         <v>217</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="9" t="s">
+    <row r="214" spans="1:4">
+      <c r="A214" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="B214" s="10" t="s">
+      <c r="B214" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="C214" s="11">
+      <c r="D214" s="11">
         <v>218</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="9" t="s">
+    <row r="215" spans="1:4">
+      <c r="A215" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B215" s="10" t="s">
+      <c r="B215" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="C215" s="11">
+      <c r="D215" s="11">
         <v>219</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="9" t="s">
+    <row r="216" spans="1:4">
+      <c r="A216" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="B216" s="10" t="s">
+      <c r="B216" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C216" s="11">
+      <c r="D216" s="11">
         <v>220</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="9" t="s">
+    <row r="217" spans="1:4">
+      <c r="A217" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B217" s="10" t="s">
+      <c r="B217" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="C217" s="11">
+      <c r="D217" s="11">
         <v>221</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="9" t="s">
+    <row r="218" spans="1:4">
+      <c r="A218" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B218" s="10" t="s">
+      <c r="B218" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="C218" s="11">
+      <c r="D218" s="11">
         <v>222</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="9" t="s">
+    <row r="219" spans="1:4">
+      <c r="A219" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B219" s="10" t="s">
+      <c r="B219" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C219" s="11">
+      <c r="D219" s="11">
         <v>223</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="9" t="s">
+    <row r="220" spans="1:4">
+      <c r="A220" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C220" s="11">
+      <c r="D220" s="11">
         <v>224</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="9" t="s">
+    <row r="221" spans="1:4">
+      <c r="A221" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="B221" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C221" s="11">
+      <c r="D221" s="11">
         <v>225</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="9" t="s">
+    <row r="222" spans="1:4">
+      <c r="A222" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B222" s="10" t="s">
+      <c r="B222" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="C222" s="11">
+      <c r="D222" s="11">
         <v>226</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="9" t="s">
+    <row r="223" spans="1:4">
+      <c r="A223" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B223" s="10" t="s">
+      <c r="B223" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="C223" s="11">
+      <c r="D223" s="11">
         <v>227</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="9" t="s">
+    <row r="224" spans="1:4">
+      <c r="A224" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B224" s="10" t="s">
+      <c r="B224" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="C224" s="11">
+      <c r="D224" s="11">
         <v>228</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="9" t="s">
+    <row r="225" spans="1:4">
+      <c r="A225" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="B225" s="10" t="s">
+      <c r="B225" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C225" s="11">
+      <c r="C225" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D225" s="11">
         <v>229</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="9" t="s">
+    <row r="226" spans="1:4">
+      <c r="A226" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="B226" s="10" t="s">
+      <c r="B226" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="C226" s="11">
+      <c r="C226" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D226" s="11">
         <v>230</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="51.75">
-      <c r="A227" s="12" t="s">
+    <row r="227" spans="1:4">
+      <c r="A227" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B227" s="10" t="s">
+      <c r="B227" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="C227" s="11">
+      <c r="D227" s="11">
         <v>231</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="9" t="s">
+    <row r="228" spans="1:4">
+      <c r="A228" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="B228" s="10" t="s">
+      <c r="B228" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="C228" s="11">
+      <c r="D228" s="11">
         <v>232</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="9" t="s">
+    <row r="229" spans="1:4">
+      <c r="A229" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B229" s="10" t="s">
+      <c r="B229" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="C229" s="11">
+      <c r="D229" s="11">
         <v>233</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="9" t="s">
+    <row r="230" spans="1:4">
+      <c r="A230" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="B230" s="10" t="s">
+      <c r="B230" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="C230" s="11">
+      <c r="C230" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D230" s="11">
         <v>234</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="9" t="s">
+    <row r="231" spans="1:4">
+      <c r="A231" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B231" s="10" t="s">
+      <c r="B231" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="C231" s="11">
+      <c r="D231" s="11">
         <v>235</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="9" t="s">
+    <row r="232" spans="1:4">
+      <c r="A232" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="B232" s="10" t="s">
+      <c r="B232" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="C232" s="11">
+      <c r="D232" s="11">
         <v>236</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="9" t="s">
+    <row r="233" spans="1:4">
+      <c r="A233" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B233" s="10" t="s">
+      <c r="B233" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="C233" s="11">
+      <c r="D233" s="11">
         <v>237</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="9" t="s">
+    <row r="234" spans="1:4">
+      <c r="A234" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B234" s="10" t="s">
+      <c r="B234" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="C234" s="11">
+      <c r="D234" s="11">
         <v>238</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="9" t="s">
+    <row r="235" spans="1:4">
+      <c r="A235" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="C235" s="11">
+      <c r="C235" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D235" s="11">
         <v>239</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="9" t="s">
+    <row r="236" spans="1:4">
+      <c r="A236" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="B236" s="10" t="s">
+      <c r="B236" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="C236" s="11">
+      <c r="D236" s="11">
         <v>240</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="9" t="s">
+    <row r="237" spans="1:4">
+      <c r="A237" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B237" s="10" t="s">
+      <c r="B237" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="C237" s="11">
+      <c r="D237" s="11">
         <v>242</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="9" t="s">
+    <row r="238" spans="1:4">
+      <c r="A238" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="B238" s="10" t="s">
+      <c r="B238" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="C238" s="11">
+      <c r="C238" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D238" s="11">
         <v>243</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="9" t="s">
+    <row r="239" spans="1:4">
+      <c r="A239" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="B239" s="10" t="s">
+      <c r="B239" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="C239" s="11">
+      <c r="D239" s="11">
         <v>244</v>
       </c>
     </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="9" t="s">
+    <row r="240" spans="1:4">
+      <c r="A240" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="B240" s="10" t="s">
+      <c r="B240" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="C240" s="11">
+      <c r="D240" s="11">
         <v>245</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="66">
-      <c r="A241" s="13" t="s">
+    <row r="241" spans="1:4">
+      <c r="A241" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="B241" s="10" t="s">
+      <c r="B241" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="C241" s="11">
+      <c r="D241" s="11">
         <v>246</v>
       </c>
     </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="9" t="s">
+    <row r="242" spans="1:4">
+      <c r="A242" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="B242" s="10" t="s">
+      <c r="B242" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="C242" s="11">
+      <c r="D242" s="11">
         <v>247</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="66">
-      <c r="A243" s="13" t="s">
+    <row r="243" spans="1:4">
+      <c r="A243" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B243" s="10" t="s">
+      <c r="B243" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="C243" s="11">
+      <c r="D243" s="11">
         <v>248</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="9" t="s">
+    <row r="244" spans="1:4">
+      <c r="A244" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="B244" s="10" t="s">
+      <c r="B244" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="C244" s="11">
+      <c r="C244" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D244" s="11">
         <v>249</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="9" t="s">
+    <row r="245" spans="1:4">
+      <c r="A245" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="B245" s="10" t="s">
+      <c r="B245" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="C245" s="11">
+      <c r="D245" s="11">
         <v>250</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
-      <c r="B246" s="10" t="s">
+    <row r="246" spans="1:4">
+      <c r="A246" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B246" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="C246" s="11">
+      <c r="D246" s="11">
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
-      <c r="B247" s="10" t="s">
+    <row r="247" spans="1:4">
+      <c r="A247" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="B247" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="C247" s="11">
+      <c r="C247" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D247" s="11">
         <v>252</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
-      <c r="B248" s="10" t="s">
+    <row r="248" spans="1:4">
+      <c r="A248" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B248" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="C248" s="11">
+      <c r="D248" s="11">
         <v>253</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
-      <c r="B249" s="10" t="s">
+    <row r="249" spans="1:4">
+      <c r="A249" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="B249" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="C249" s="11">
+      <c r="C249" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D249" s="11">
         <v>254</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
-      <c r="B250" s="10" t="s">
+    <row r="250" spans="1:4">
+      <c r="A250" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B250" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="C250" s="11">
+      <c r="D250" s="11">
         <v>255</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
-      <c r="C251" s="11">
+    <row r="251" spans="1:4">
+      <c r="A251" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="D251" s="11">
         <v>256</v>
       </c>
     </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D252" s="11">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="D253" s="11">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B254" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="D254" s="11">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="D255" s="11">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B256" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="D256" s="11">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="D257" s="11">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="B258" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D258" s="11">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="B259" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D259" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="D260" s="11">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="D261" s="11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D262" s="11">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B263" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="D263" s="11">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B264" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="D264" s="11">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B265" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="D265" s="11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B266" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="D266" s="11">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B267" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D267" s="11">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="B268" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D268" s="11">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B269" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="D269" s="11">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D270" s="11">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="B271" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D271" s="11">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B272" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="D272" s="11">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B273" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="D273" s="11">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B274" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="D274" s="11">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B275" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="D275" s="11">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B276" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="D276" s="11">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B277" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D277" s="11">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B278" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D278" s="11">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B279" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="D279" s="11">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="D280" s="11">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B281" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="D281" s="11">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B282" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D282" s="11">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D283" s="11">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B284" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="D284" s="11">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B285" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="D285" s="11">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="D286" s="11">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="B287" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D287" s="11">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="B288" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D288" s="11">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D289" s="11">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B290" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="D290" s="11">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="B291" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="D291" s="11">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="B292" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D292" s="11">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B293" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="D293" s="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B294" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="D294" s="11">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B295" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D295" s="11">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B296" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="D296" s="11">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B297" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="D297" s="11">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B298" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="D298" s="11">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B299" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="D299" s="11">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B300" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D300" s="11">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="D301" s="11">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B302" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="D302" s="11">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D303" s="11">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="D304" s="11">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="D305" s="11">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D306" s="11">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B307" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="D307" s="11">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="D308" s="11">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="D309" s="11">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="D310" s="11">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="D311" s="11">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="D312" s="11">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="D313" s="11">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="D314" s="11">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="D315" s="11">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="D316" s="11">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="D317" s="11">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="D318" s="11">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="D319" s="11">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="D320" s="11">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="321" spans="4:4">
+      <c r="D321" s="11">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="322" spans="4:4">
+      <c r="D322" s="11">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="323" spans="4:4">
+      <c r="D323" s="11">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="324" spans="4:4">
+      <c r="D324" s="11">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="325" spans="4:4">
+      <c r="D325" s="11">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="326" spans="4:4">
+      <c r="D326" s="11">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="327" spans="4:4">
+      <c r="D327" s="11">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="328" spans="4:4">
+      <c r="D328" s="11">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="329" spans="4:4">
+      <c r="D329" s="11">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="330" spans="4:4">
+      <c r="D330" s="11">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="331" spans="4:4">
+      <c r="D331" s="11">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="332" spans="4:4">
+      <c r="D332" s="11">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="333" spans="4:4">
+      <c r="D333" s="11">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="334" spans="4:4">
+      <c r="D334" s="11">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="335" spans="4:4">
+      <c r="D335" s="11">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="336" spans="4:4">
+      <c r="D336" s="11">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="337" spans="4:4">
+      <c r="D337" s="11">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="338" spans="4:4">
+      <c r="D338" s="11">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="339" spans="4:4">
+      <c r="D339" s="11">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="340" spans="4:4">
+      <c r="D340" s="11">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="341" spans="4:4">
+      <c r="D341" s="11">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="342" spans="4:4">
+      <c r="D342" s="11">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="343" spans="4:4">
+      <c r="D343" s="11">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="344" spans="4:4">
+      <c r="D344" s="11">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="345" spans="4:4">
+      <c r="D345" s="11">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="346" spans="4:4">
+      <c r="D346" s="11">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="347" spans="4:4">
+      <c r="D347" s="11">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="348" spans="4:4">
+      <c r="D348" s="11">
+        <v>355</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E236" xr:uid="{B14E0EA2-864E-4427-AE73-BA934C3F9A04}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D1:D2">
-    <sortCondition descending="1" ref="D1:D2"/>
-  </sortState>
+  <autoFilter ref="A1:D1" xr:uid="{B14E0EA2-864E-4427-AE73-BA934C3F9A04}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/gunlukarapcakelimeler.xlsx
+++ b/gunlukarapcakelimeler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063C6C45-BC04-4176-A4C5-88D8488E7A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5EE7EE-11E9-4B45-BF62-8B53AF047FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="940">
   <si>
     <t>arabic_word</t>
   </si>
@@ -1882,13 +1882,988 @@
   </si>
   <si>
     <t>sayfa no</t>
+  </si>
+  <si>
+    <t>Çiftçi</t>
+  </si>
+  <si>
+    <t>Kasap</t>
+  </si>
+  <si>
+    <t>Şoför</t>
+  </si>
+  <si>
+    <t>Polis</t>
+  </si>
+  <si>
+    <t>Aşçı</t>
+  </si>
+  <si>
+    <t>Berber</t>
+  </si>
+  <si>
+    <t>Bakkal</t>
+  </si>
+  <si>
+    <t>Aşama,Merhale,Safha</t>
+  </si>
+  <si>
+    <t>İlkokul</t>
+  </si>
+  <si>
+    <t>Ortaokul</t>
+  </si>
+  <si>
+    <t>Lise</t>
+  </si>
+  <si>
+    <t>Erkek çocuğu</t>
+  </si>
+  <si>
+    <t>Kız çocuğu</t>
+  </si>
+  <si>
+    <t>Çocuk, Evlat</t>
+  </si>
+  <si>
+    <t>Saat bir</t>
+  </si>
+  <si>
+    <t>مُزَارعٌ</t>
+  </si>
+  <si>
+    <t>جَزَّارٌ</t>
+  </si>
+  <si>
+    <t>سَاءِقٌ</t>
+  </si>
+  <si>
+    <t>شُرْطِيٌّ</t>
+  </si>
+  <si>
+    <t>طَبَّخٌ</t>
+  </si>
+  <si>
+    <t>حَلاَّقٌ</t>
+  </si>
+  <si>
+    <t>بَقَّلٌ</t>
+  </si>
+  <si>
+    <t>مَرْحَلَةٌ</t>
+  </si>
+  <si>
+    <t>اَلْمَرْحَلَةُ الْاِبْتِدَاءِيَّةُ</t>
+  </si>
+  <si>
+    <t>اَلْمَرْحَلَةُ الْمُتَوَسِّطَةُ</t>
+  </si>
+  <si>
+    <t>اَلْمَرْحَلَةُ الثَّانَوِيَّةُ</t>
+  </si>
+  <si>
+    <t>طِفْلٌ</t>
+  </si>
+  <si>
+    <t>طِفْلَةٌ</t>
+  </si>
+  <si>
+    <t>اَلسَّاعَةُ الْوَاحِدَةُ</t>
+  </si>
+  <si>
+    <t>Saat iki</t>
+  </si>
+  <si>
+    <t>Saat üç</t>
+  </si>
+  <si>
+    <t>Saat dört</t>
+  </si>
+  <si>
+    <t>Saat beş</t>
+  </si>
+  <si>
+    <t>Saat altı</t>
+  </si>
+  <si>
+    <t>Saat yedi</t>
+  </si>
+  <si>
+    <t>Saat sekiz</t>
+  </si>
+  <si>
+    <t>Saat dokuz</t>
+  </si>
+  <si>
+    <t>Saat on</t>
+  </si>
+  <si>
+    <t>Saat onbir</t>
+  </si>
+  <si>
+    <t>Saat oniki</t>
+  </si>
+  <si>
+    <t>Ders</t>
+  </si>
+  <si>
+    <t>Şahıs,Kişi,Birey</t>
+  </si>
+  <si>
+    <t>Almak,yemek</t>
+  </si>
+  <si>
+    <t>Zarf</t>
+  </si>
+  <si>
+    <t>اَلسَّاعَةُ الثَّانِيَةُ</t>
+  </si>
+  <si>
+    <t>اَلسَّاعَةُ الثَّالِثَةُ</t>
+  </si>
+  <si>
+    <t>اَلسَّاعَةُ الرَّابِعَةُ</t>
+  </si>
+  <si>
+    <t>اَلسَّاعَةُ الْخَامِسَةُ</t>
+  </si>
+  <si>
+    <t>اَلسَّاعَةُ السَّادِسَةُ</t>
+  </si>
+  <si>
+    <t>اَلسَّاعَةُ السَّابِعَةُ</t>
+  </si>
+  <si>
+    <t>اَلسَّاعَةُ الثَّامِنَةُ</t>
+  </si>
+  <si>
+    <t>اَلسَّاعَةُ التَّاسِعَةُ</t>
+  </si>
+  <si>
+    <t>اَلسَّاعَةُ الْعَاثِرَةُ</t>
+  </si>
+  <si>
+    <t>اَلسَّاعَةُ الْحَادِيَةَ عَثْرَةَ</t>
+  </si>
+  <si>
+    <t>اَلسَّاعَةُ الثَّانِيَةَ عَثْرَةَ</t>
+  </si>
+  <si>
+    <t>مَادَّةٌ</t>
+  </si>
+  <si>
+    <t>ثَخْصٌ</t>
+  </si>
+  <si>
+    <t>تَنَاوَلَ</t>
+  </si>
+  <si>
+    <t>ظَرْفٌ</t>
+  </si>
+  <si>
+    <t>ضَمِيرٌ</t>
+  </si>
+  <si>
+    <t>مَلَأَ</t>
+  </si>
+  <si>
+    <t>نَسَخَ</t>
+  </si>
+  <si>
+    <t>تَعْبِيرٌ</t>
+  </si>
+  <si>
+    <t>فَرَاعٌ</t>
+  </si>
+  <si>
+    <t>مَرْكَزُ اتَّسَوُّقِ</t>
+  </si>
+  <si>
+    <t>مَارْكَةٌ</t>
+  </si>
+  <si>
+    <t>سَوقٌ</t>
+  </si>
+  <si>
+    <t>تَسَوَّقَ</t>
+  </si>
+  <si>
+    <t>مُعْجَمٌ</t>
+  </si>
+  <si>
+    <t>اَلْمُعْجَمُ</t>
+  </si>
+  <si>
+    <t>كِتَابُ الْقِرَاءَةِ</t>
+  </si>
+  <si>
+    <t>كِتَابُ الْقَرَاعِدِ</t>
+  </si>
+  <si>
+    <t>Zamir</t>
+  </si>
+  <si>
+    <t>Doldurmak</t>
+  </si>
+  <si>
+    <t>Fotokopi çekmek,Kopyalamak</t>
+  </si>
+  <si>
+    <t>Deyim,Tabir</t>
+  </si>
+  <si>
+    <t>Boşluk</t>
+  </si>
+  <si>
+    <t>Alışveriş merkezi</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Çarşı</t>
+  </si>
+  <si>
+    <t>Alışveriş yapmak</t>
+  </si>
+  <si>
+    <t>Sözlük</t>
+  </si>
+  <si>
+    <t>Arapça sözlük</t>
+  </si>
+  <si>
+    <t>Okuma kitabı</t>
+  </si>
+  <si>
+    <t>Gramer kitabı</t>
+  </si>
+  <si>
+    <t>Fen bilgisi kitabı</t>
+  </si>
+  <si>
+    <t>كِتَابُ الْعُلُومِ</t>
+  </si>
+  <si>
+    <t>Kitap</t>
+  </si>
+  <si>
+    <t>Defter</t>
+  </si>
+  <si>
+    <t>Kalem</t>
+  </si>
+  <si>
+    <t>Silgi</t>
+  </si>
+  <si>
+    <t>Son</t>
+  </si>
+  <si>
+    <t>Sarımsak</t>
+  </si>
+  <si>
+    <t>Soğan</t>
+  </si>
+  <si>
+    <t>Domates</t>
+  </si>
+  <si>
+    <t>Kahve taneleri,Kahve</t>
+  </si>
+  <si>
+    <t>Yumurta</t>
+  </si>
+  <si>
+    <t>Kutu,Teneke kutu,Paket</t>
+  </si>
+  <si>
+    <t>Şeker paketi</t>
+  </si>
+  <si>
+    <t>Kaşık</t>
+  </si>
+  <si>
+    <t>Çanta</t>
+  </si>
+  <si>
+    <t>بُنٌّ</t>
+  </si>
+  <si>
+    <t>كِتَابٌ</t>
+  </si>
+  <si>
+    <t>دَفْتَرٌ</t>
+  </si>
+  <si>
+    <t>قَلَمٌ</t>
+  </si>
+  <si>
+    <t>مِمْحَاةٌ</t>
+  </si>
+  <si>
+    <t>آخَرُ</t>
+  </si>
+  <si>
+    <t>ثُومَةٌ</t>
+  </si>
+  <si>
+    <t>بَصَلَةٌ</t>
+  </si>
+  <si>
+    <t>طَمَاطِمُ</t>
+  </si>
+  <si>
+    <t>بَيْضَةٌ</t>
+  </si>
+  <si>
+    <t>عُلْبَةٌ</t>
+  </si>
+  <si>
+    <t>Tuz  paketi</t>
+  </si>
+  <si>
+    <t>عُلْبَةُ الْمِلْحِ</t>
+  </si>
+  <si>
+    <t>عُلْبَةُ السُّكَّرِ</t>
+  </si>
+  <si>
+    <t>مِلْعَقَةٌ</t>
+  </si>
+  <si>
+    <t>حَقِيبَةٌ</t>
+  </si>
+  <si>
+    <t>عَبَاءَةٌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قَمِيصٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">جَوْرَبٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">حِذَاءٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خُفٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سِرْوَالٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">حِزَامٌ </t>
+  </si>
+  <si>
+    <t>قُفَّازٌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حِجَابٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">جِلْبَابٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">قِسْمٌ </t>
+  </si>
+  <si>
+    <t>لَوْنٌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أَسْوَدُ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">أبْيَضُ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">رِدَاءٌ </t>
+  </si>
+  <si>
+    <t>Gömlek (Gömlek reyonu)</t>
+  </si>
+  <si>
+    <t>Çorap</t>
+  </si>
+  <si>
+    <t>Ayakkabı,sandalet</t>
+  </si>
+  <si>
+    <t>Terlik,çarık,mes</t>
+  </si>
+  <si>
+    <t>Bol dış elbise,kadın elbisesi</t>
+  </si>
+  <si>
+    <t>Pantolon</t>
+  </si>
+  <si>
+    <t>Kemer</t>
+  </si>
+  <si>
+    <t>Eldiven</t>
+  </si>
+  <si>
+    <t>Çarşaf</t>
+  </si>
+  <si>
+    <t>Örtü</t>
+  </si>
+  <si>
+    <t>Aba</t>
+  </si>
+  <si>
+    <t>Bölüm,kısım</t>
+  </si>
+  <si>
+    <t>Renk</t>
+  </si>
+  <si>
+    <t>Siyah</t>
+  </si>
+  <si>
+    <t>Beyaz</t>
+  </si>
+  <si>
+    <t>دَرَجَةُ الْحَرَارَةِ</t>
+  </si>
+  <si>
+    <t>عُطْلَةُ الْأُسْبُوعِ</t>
+  </si>
+  <si>
+    <t>يَابِسٌ</t>
+  </si>
+  <si>
+    <t>مُعْتَدِلٌ</t>
+  </si>
+  <si>
+    <t>الْمِنْطَقَةُ الْحَارَّةُ</t>
+  </si>
+  <si>
+    <t>يَمِينٌ</t>
+  </si>
+  <si>
+    <t>غَائِمٌ</t>
+  </si>
+  <si>
+    <t>مُشْمِسٌ</t>
+  </si>
+  <si>
+    <t>مُقْمِرٌ</t>
+  </si>
+  <si>
+    <t>صَغِيعٌ</t>
+  </si>
+  <si>
+    <t>فَيَضَانٌ</t>
+  </si>
+  <si>
+    <t>ضَبَابٌ</t>
+  </si>
+  <si>
+    <t>جَلِيدٌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خَمْسُونَ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سِتُّونَ </t>
+  </si>
+  <si>
+    <t>سَبْعُونَ</t>
+  </si>
+  <si>
+    <t>ثَمَانُونَ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تِسْعُونَ </t>
+  </si>
+  <si>
+    <t>شِمَالٌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شَيْءٌ </t>
+  </si>
+  <si>
+    <t>أجْرَى</t>
+  </si>
+  <si>
+    <t>خَارِجٌ</t>
+  </si>
+  <si>
+    <t>سَمَاءٌ</t>
+  </si>
+  <si>
+    <t>أَمْطَرَ</t>
+  </si>
+  <si>
+    <t>مَطَرٌ</t>
+  </si>
+  <si>
+    <t>فَصْلٌ</t>
+  </si>
+  <si>
+    <t>فَضلُ الشَّتَاءِ</t>
+  </si>
+  <si>
+    <t>اِبْتَلَّ</t>
+  </si>
+  <si>
+    <t>تَرَكَ</t>
+  </si>
+  <si>
+    <t>مِظَلَّةٌ</t>
+  </si>
+  <si>
+    <t>دَافِيٌّ</t>
+  </si>
+  <si>
+    <t>دَرَجَةٌ</t>
+  </si>
+  <si>
+    <t>قَضَى</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> عُطْلَةُ الصَّيْفِ</t>
+  </si>
+  <si>
+    <t>شَاطِيٌّ</t>
+  </si>
+  <si>
+    <t>بَحْرٌ</t>
+  </si>
+  <si>
+    <t>حَضَرَ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أَحْضَرَ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خَيْمَةٌ </t>
+  </si>
+  <si>
+    <t>Elli</t>
+  </si>
+  <si>
+    <t>Altmış</t>
+  </si>
+  <si>
+    <t>Yetmiş</t>
+  </si>
+  <si>
+    <t>Seksen</t>
+  </si>
+  <si>
+    <t>Doksan</t>
+  </si>
+  <si>
+    <t>Sağ</t>
+  </si>
+  <si>
+    <t>Sol</t>
+  </si>
+  <si>
+    <t>Şey</t>
+  </si>
+  <si>
+    <t>Yerine getirmek,Uygulamak</t>
+  </si>
+  <si>
+    <t>Dış-İç</t>
+  </si>
+  <si>
+    <t>Gökyüzü</t>
+  </si>
+  <si>
+    <t>Yağmur yağdırmak</t>
+  </si>
+  <si>
+    <t>Yağmur</t>
+  </si>
+  <si>
+    <t>Mevsim</t>
+  </si>
+  <si>
+    <t>فَضلُ الصَّيْفِ</t>
+  </si>
+  <si>
+    <t>فَضلُ الرَّبِيعِ</t>
+  </si>
+  <si>
+    <t>فَضلُ الْخَرِيفِ</t>
+  </si>
+  <si>
+    <t>مُبْتَلٌّ</t>
+  </si>
+  <si>
+    <t>حَارٌّ</t>
+  </si>
+  <si>
+    <t>بَارِدٌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> اَلْمِنْطَقَةُ الْبَارِدَةُ</t>
+  </si>
+  <si>
+    <t>تَحْتَ الصِّفْرِ</t>
+  </si>
+  <si>
+    <t>حَرٌّ</t>
+  </si>
+  <si>
+    <t>شَاطِئُ الْبَحْرِ</t>
+  </si>
+  <si>
+    <t>شَاطِئُ النَّهْرِ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> بَرٌّ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تَكَلَّمَ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بَقِيَ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بَرْقٌ </t>
+  </si>
+  <si>
+    <t>رَعْدٌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غَيْمٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">رِيحٌ </t>
+  </si>
+  <si>
+    <t>رَذَازٌ</t>
+  </si>
+  <si>
+    <t>طَلٌّ</t>
+  </si>
+  <si>
+    <t>Yaz mevsimi</t>
+  </si>
+  <si>
+    <t>Kış mevsimi</t>
+  </si>
+  <si>
+    <t>İlkbahar mevsimi</t>
+  </si>
+  <si>
+    <t>Sonbahar mevsimi</t>
+  </si>
+  <si>
+    <t>Islanmak</t>
+  </si>
+  <si>
+    <t>Islanmış,Islak</t>
+  </si>
+  <si>
+    <t>Kuru</t>
+  </si>
+  <si>
+    <t>Terk etmek,Bırakmak</t>
+  </si>
+  <si>
+    <t>Şemsiye</t>
+  </si>
+  <si>
+    <t>Sıcak</t>
+  </si>
+  <si>
+    <t>Kavurucu,çok sıcak</t>
+  </si>
+  <si>
+    <t>Soğuk</t>
+  </si>
+  <si>
+    <t>Ilık,Ilıman</t>
+  </si>
+  <si>
+    <t>Sıcak bölge</t>
+  </si>
+  <si>
+    <t>Soğuk bölge</t>
+  </si>
+  <si>
+    <t>Derece ;not</t>
+  </si>
+  <si>
+    <t>Sıcaklık derecesi</t>
+  </si>
+  <si>
+    <t>Sıfırın altında</t>
+  </si>
+  <si>
+    <t>Vakit geçirmek ;hüküm vermek</t>
+  </si>
+  <si>
+    <t>Sıcaklık-Soğukluk</t>
+  </si>
+  <si>
+    <t>Hafta tatili</t>
+  </si>
+  <si>
+    <t>Yaz tatili</t>
+  </si>
+  <si>
+    <t>Sahil</t>
+  </si>
+  <si>
+    <t>Deniz kıyısı</t>
+  </si>
+  <si>
+    <t>Nehir kıyısı</t>
+  </si>
+  <si>
+    <t>Deniz</t>
+  </si>
+  <si>
+    <t>Kır,Kırsal,Kara</t>
+  </si>
+  <si>
+    <t>Gelmek , Hazır olmak , Katılmak</t>
+  </si>
+  <si>
+    <t>Getirmek , Sunmak</t>
+  </si>
+  <si>
+    <t>Çadır</t>
+  </si>
+  <si>
+    <t>Konuşmak</t>
+  </si>
+  <si>
+    <t>Kalmak</t>
+  </si>
+  <si>
+    <t>Şimşek</t>
+  </si>
+  <si>
+    <t>Gök gürültüsü</t>
+  </si>
+  <si>
+    <t>Bulut,Kapalı(hava)</t>
+  </si>
+  <si>
+    <t>Bulutlu</t>
+  </si>
+  <si>
+    <t>Rüzgar</t>
+  </si>
+  <si>
+    <t>Güneşli,Açık(hava)</t>
+  </si>
+  <si>
+    <t>Mehtaplı</t>
+  </si>
+  <si>
+    <t>Çisenti</t>
+  </si>
+  <si>
+    <t>Kırağı,Don</t>
+  </si>
+  <si>
+    <t>Sel,Su baskını</t>
+  </si>
+  <si>
+    <t>Sis</t>
+  </si>
+  <si>
+    <t>Buz,Don</t>
+  </si>
+  <si>
+    <t>Kırmızı</t>
+  </si>
+  <si>
+    <t>Sarı</t>
+  </si>
+  <si>
+    <t>Mavi</t>
+  </si>
+  <si>
+    <t>Yeşil</t>
+  </si>
+  <si>
+    <t>Kahverengi</t>
+  </si>
+  <si>
+    <t>Gri</t>
+  </si>
+  <si>
+    <t>Pembe</t>
+  </si>
+  <si>
+    <t>Lacivert</t>
+  </si>
+  <si>
+    <t>Riyal</t>
+  </si>
+  <si>
+    <t>Dinar</t>
+  </si>
+  <si>
+    <t>Lira</t>
+  </si>
+  <si>
+    <t>Yirmi</t>
+  </si>
+  <si>
+    <t>Otuz</t>
+  </si>
+  <si>
+    <t>Kırk</t>
+  </si>
+  <si>
+    <t>أَحْمَرُ</t>
+  </si>
+  <si>
+    <t>أَصْفَرُ</t>
+  </si>
+  <si>
+    <t>أَزْرَقُ</t>
+  </si>
+  <si>
+    <t>أَخْفَرُ</t>
+  </si>
+  <si>
+    <t>بُنِّيٌّ</t>
+  </si>
+  <si>
+    <t>رَمَادِيٌّ</t>
+  </si>
+  <si>
+    <t>وَرْدِيٌّ</t>
+  </si>
+  <si>
+    <t>لاَزَوَرْدِيٌّ</t>
+  </si>
+  <si>
+    <t>رِيَالٌ</t>
+  </si>
+  <si>
+    <t>دِينَارٌ</t>
+  </si>
+  <si>
+    <t>لَيرَةٌ</t>
+  </si>
+  <si>
+    <t>اَلْمَطْلُوبُ</t>
+  </si>
+  <si>
+    <t>عِثْرُونَ</t>
+  </si>
+  <si>
+    <t>ثَلاَثُونَ</t>
+  </si>
+  <si>
+    <t>أرْبَعُونَ</t>
+  </si>
+  <si>
+    <t>Toplam istenen , Yekun</t>
+  </si>
+  <si>
+    <t>Yer , Mekan</t>
+  </si>
+  <si>
+    <t>İntikal etmek , geçmek</t>
+  </si>
+  <si>
+    <t>Memleket ,ülke,şehir</t>
+  </si>
+  <si>
+    <t>Görüş</t>
+  </si>
+  <si>
+    <t>Devam etmek , sürmek</t>
+  </si>
+  <si>
+    <t>Yaklaşık olarak, takriben</t>
+  </si>
+  <si>
+    <t>Kimlik</t>
+  </si>
+  <si>
+    <t>Pasaport</t>
+  </si>
+  <si>
+    <t>Evlenmek</t>
+  </si>
+  <si>
+    <t>Evlendirmek</t>
+  </si>
+  <si>
+    <t>Ziyaret etmek</t>
+  </si>
+  <si>
+    <t>Sessiz,sakin,dalgasız(deniz)</t>
+  </si>
+  <si>
+    <t>Mutlu</t>
+  </si>
+  <si>
+    <t>Üzgün</t>
+  </si>
+  <si>
+    <t>Hüzünlü</t>
+  </si>
+  <si>
+    <t>تَقْرِيبًا</t>
+  </si>
+  <si>
+    <t>الْجِنْسِيَّةُ</t>
+  </si>
+  <si>
+    <t>جَوَازُ السَّفَرِ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مَكَانٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">اِنْتَقَلَ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بَلَدٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">اِسْتَغْرَقَ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">جَوَازٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تَزَوَّجَ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> زَوَّجَ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">زَارَ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سَعِيدٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسِفٌ </t>
+  </si>
+  <si>
+    <t>حَزِينٌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رَأْيٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> هَادِئٌ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1897,57 +2872,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Amiri Quran"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arabic Typesetting"/>
-      <family val="4"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Amiri Quran"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Amiri Quran"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1957,12 +2896,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1979,53 +2912,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2361,1720 +3256,1721 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14E0EA2-864E-4427-AE73-BA934C3F9A04}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D348"/>
+  <dimension ref="A1:D471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A458" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B474" sqref="B474"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="36"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="33.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="30.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="2" t="s">
         <v>380</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="10">
+      <c r="D2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="2" customFormat="1">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="2" customFormat="1">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="2" customFormat="1">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="2" customFormat="1">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="2" customFormat="1">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="2" customFormat="1">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="2" customFormat="1">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="2" customFormat="1">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="2" customFormat="1">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="2" customFormat="1">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="2" customFormat="1">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="2" customFormat="1">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="2" customFormat="1">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="2" customFormat="1">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="2" customFormat="1">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="2" customFormat="1">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="2" customFormat="1">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="2" customFormat="1">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="2" customFormat="1">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="2" customFormat="1">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="2" customFormat="1">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="2" customFormat="1">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="2" customFormat="1">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="2" customFormat="1">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="2" customFormat="1">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="2" customFormat="1">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="2" customFormat="1">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="2" customFormat="1">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="2" customFormat="1">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="2" customFormat="1">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="2" customFormat="1">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="2" customFormat="1">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="2" customFormat="1">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="2" customFormat="1">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="2" customFormat="1">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="2" customFormat="1">
-      <c r="A48" s="12" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="2" customFormat="1">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="2" customFormat="1">
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="2" customFormat="1">
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="2" customFormat="1">
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="2">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="2" customFormat="1">
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="2" customFormat="1">
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1">
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="2" customFormat="1">
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="2" customFormat="1">
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="2" customFormat="1">
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="2">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="2" customFormat="1">
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="2" customFormat="1">
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="2" customFormat="1">
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="2" customFormat="1">
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="2">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="2" customFormat="1">
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="2" customFormat="1">
-      <c r="A64" s="12" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="2">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="2" customFormat="1">
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="2">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="2" customFormat="1">
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="2" customFormat="1">
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="2" customFormat="1">
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="2" customFormat="1">
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="2" customFormat="1">
-      <c r="A70" s="12" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="2" customFormat="1">
-      <c r="A71" s="12" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="2" customFormat="1">
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="2" customFormat="1">
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="2" customFormat="1">
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="2" customFormat="1">
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="2" customFormat="1">
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="2" customFormat="1">
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="2" customFormat="1">
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="2" customFormat="1">
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="2" customFormat="1">
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="2" customFormat="1">
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="2" customFormat="1">
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="2" customFormat="1">
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="2" customFormat="1">
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="2">
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="2" customFormat="1">
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="2" customFormat="1">
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="2" customFormat="1">
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87" s="2">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="2" customFormat="1">
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="2" customFormat="1">
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D89" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="2" customFormat="1">
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="2" customFormat="1">
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="2" customFormat="1">
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="2" customFormat="1">
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="2" customFormat="1">
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="2" customFormat="1">
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D95" s="2">
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="2" customFormat="1">
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D96" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="2" customFormat="1">
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="2" customFormat="1">
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D98" s="10">
+      <c r="D98" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="2" customFormat="1">
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="2" customFormat="1">
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D100" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="2" customFormat="1">
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="2" customFormat="1">
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D102" s="10">
+      <c r="D102" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="2" customFormat="1">
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D103" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="2" customFormat="1">
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D104" s="10">
+      <c r="D104" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="2" customFormat="1">
+    <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D105" s="10">
+      <c r="D105" s="2">
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="2" customFormat="1">
+    <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D106" s="10">
+      <c r="D106" s="2">
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="2" customFormat="1">
+    <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D107" s="10">
+      <c r="D107" s="2">
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="2" customFormat="1">
+    <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D108" s="10">
+      <c r="D108" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="2" customFormat="1">
+    <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D109" s="10">
+      <c r="D109" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="2" customFormat="1">
+    <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D110" s="10">
+      <c r="D110" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="2" customFormat="1">
+    <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D111" s="10">
+      <c r="D111" s="2">
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="2" customFormat="1">
+    <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D112" s="10">
+      <c r="D112" s="2">
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="2" customFormat="1">
+    <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D113" s="10">
+      <c r="D113" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="2" customFormat="1">
+    <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D114" s="10">
+      <c r="D114" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="2" customFormat="1">
+    <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D115" s="10">
+      <c r="D115" s="2">
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="2" customFormat="1">
+    <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D116" s="10">
+      <c r="D116" s="2">
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="2" customFormat="1">
+    <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D117" s="10">
+      <c r="D117" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="2" customFormat="1">
+    <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D118" s="10">
+      <c r="D118" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="2" customFormat="1">
+    <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D119" s="10">
+      <c r="D119" s="2">
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="1:4" s="2" customFormat="1">
+    <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D120" s="10">
+      <c r="D120" s="2">
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="2" customFormat="1">
+    <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D121" s="10">
+      <c r="D121" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:4" s="2" customFormat="1">
+    <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D122" s="10">
+      <c r="D122" s="2">
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="2" customFormat="1">
-      <c r="A123" s="12" t="s">
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D123" s="10">
+      <c r="D123" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="124" spans="1:4" s="2" customFormat="1" ht="41.25">
-      <c r="A124" s="14" t="s">
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="2" t="s">
         <v>241</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D124" s="10">
+      <c r="D124" s="2">
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="2" customFormat="1">
+    <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D125" s="10">
+      <c r="D125" s="2">
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="2" customFormat="1">
+    <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D126" s="10">
+      <c r="D126" s="2">
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="2" customFormat="1">
+    <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D127" s="10">
+      <c r="D127" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="2" customFormat="1">
+    <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D128" s="10">
+      <c r="D128" s="2">
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:4" s="2" customFormat="1">
+    <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D129" s="10">
+      <c r="D129" s="2">
         <v>132</v>
       </c>
     </row>
-    <row r="130" spans="1:4" s="2" customFormat="1">
-      <c r="A130" s="12" t="s">
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D130" s="10">
+      <c r="D130" s="2">
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:4" s="2" customFormat="1">
-      <c r="A131" s="12" t="s">
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="2" t="s">
         <v>248</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D131" s="10">
+      <c r="D131" s="2">
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:4" s="2" customFormat="1">
-      <c r="A132" s="12" t="s">
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D132" s="10">
+      <c r="D132" s="2">
         <v>135</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="2" customFormat="1">
-      <c r="A133" s="12" t="s">
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="2" t="s">
         <v>264</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D133" s="10">
+      <c r="D133" s="2">
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:4" s="2" customFormat="1">
-      <c r="A134" s="12" t="s">
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="2" t="s">
         <v>265</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D134" s="10">
+      <c r="D134" s="2">
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="2" customFormat="1">
+    <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D135" s="10">
+      <c r="D135" s="2">
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:4" s="2" customFormat="1">
+    <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D136" s="10">
+      <c r="D136" s="2">
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:4" s="2" customFormat="1">
+    <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D137" s="10">
+      <c r="D137" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="1:4" s="2" customFormat="1">
+    <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D138" s="10">
+      <c r="D138" s="2">
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:4" s="2" customFormat="1">
+    <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D139" s="10">
+      <c r="D139" s="2">
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:4" s="2" customFormat="1">
+    <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D140" s="10">
+      <c r="D140" s="2">
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="2" customFormat="1">
+    <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D141" s="10">
+      <c r="D141" s="2">
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="2" customFormat="1">
-      <c r="A142" s="12" t="s">
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D142" s="10">
+      <c r="D142" s="2">
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:4" s="2" customFormat="1">
-      <c r="A143" s="12" t="s">
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="2" t="s">
         <v>274</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D143" s="10">
+      <c r="D143" s="2">
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="2" customFormat="1">
-      <c r="A144" s="12" t="s">
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="2" t="s">
         <v>275</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D144" s="10">
+      <c r="D144" s="2">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="2" customFormat="1">
+    <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D145" s="10">
+      <c r="D145" s="2">
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="2" customFormat="1">
-      <c r="A146" s="12" t="s">
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="2" t="s">
         <v>277</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D146" s="10">
+      <c r="D146" s="2">
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:4" s="2" customFormat="1">
+    <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D147" s="10">
+      <c r="D147" s="2">
         <v>150</v>
       </c>
     </row>
@@ -4082,10 +4978,10 @@
       <c r="A148" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D148" s="11">
+      <c r="D148" s="2">
         <v>151</v>
       </c>
     </row>
@@ -4093,10 +4989,10 @@
       <c r="A149" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B149" s="8" t="s">
+      <c r="B149" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D149" s="11">
+      <c r="D149" s="2">
         <v>152</v>
       </c>
     </row>
@@ -4104,10 +5000,10 @@
       <c r="A150" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D150" s="11">
+      <c r="D150" s="2">
         <v>153</v>
       </c>
     </row>
@@ -4115,10 +5011,10 @@
       <c r="A151" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D151" s="11">
+      <c r="D151" s="2">
         <v>154</v>
       </c>
     </row>
@@ -4126,10 +5022,10 @@
       <c r="A152" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B152" s="8" t="s">
+      <c r="B152" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D152" s="11">
+      <c r="D152" s="2">
         <v>155</v>
       </c>
     </row>
@@ -4137,10 +5033,10 @@
       <c r="A153" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D153" s="11">
+      <c r="D153" s="2">
         <v>156</v>
       </c>
     </row>
@@ -4148,10 +5044,10 @@
       <c r="A154" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B154" s="8" t="s">
+      <c r="B154" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D154" s="11">
+      <c r="D154" s="2">
         <v>157</v>
       </c>
     </row>
@@ -4159,10 +5055,10 @@
       <c r="A155" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D155" s="11">
+      <c r="D155" s="2">
         <v>158</v>
       </c>
     </row>
@@ -4170,10 +5066,10 @@
       <c r="A156" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B156" s="8" t="s">
+      <c r="B156" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D156" s="11">
+      <c r="D156" s="2">
         <v>159</v>
       </c>
     </row>
@@ -4181,10 +5077,10 @@
       <c r="A157" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D157" s="11">
+      <c r="D157" s="2">
         <v>160</v>
       </c>
     </row>
@@ -4192,10 +5088,10 @@
       <c r="A158" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B158" s="8" t="s">
+      <c r="B158" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D158" s="11">
+      <c r="D158" s="2">
         <v>161</v>
       </c>
     </row>
@@ -4203,10 +5099,10 @@
       <c r="A159" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D159" s="11">
+      <c r="D159" s="2">
         <v>162</v>
       </c>
     </row>
@@ -4214,10 +5110,10 @@
       <c r="A160" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B160" s="8" t="s">
+      <c r="B160" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D160" s="11">
+      <c r="D160" s="2">
         <v>163</v>
       </c>
     </row>
@@ -4225,10 +5121,10 @@
       <c r="A161" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D161" s="11">
+      <c r="D161" s="2">
         <v>164</v>
       </c>
     </row>
@@ -4236,10 +5132,10 @@
       <c r="A162" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D162" s="11">
+      <c r="D162" s="2">
         <v>165</v>
       </c>
     </row>
@@ -4247,10 +5143,10 @@
       <c r="A163" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D163" s="11">
+      <c r="D163" s="2">
         <v>166</v>
       </c>
     </row>
@@ -4258,10 +5154,10 @@
       <c r="A164" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D164" s="11">
+      <c r="D164" s="2">
         <v>167</v>
       </c>
     </row>
@@ -4269,10 +5165,10 @@
       <c r="A165" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D165" s="11">
+      <c r="D165" s="2">
         <v>168</v>
       </c>
     </row>
@@ -4280,10 +5176,10 @@
       <c r="A166" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D166" s="11">
+      <c r="D166" s="2">
         <v>169</v>
       </c>
     </row>
@@ -4291,10 +5187,10 @@
       <c r="A167" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D167" s="11">
+      <c r="D167" s="2">
         <v>170</v>
       </c>
     </row>
@@ -4302,10 +5198,10 @@
       <c r="A168" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D168" s="11">
+      <c r="D168" s="2">
         <v>171</v>
       </c>
     </row>
@@ -4313,10 +5209,10 @@
       <c r="A169" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D169" s="11">
+      <c r="D169" s="2">
         <v>172</v>
       </c>
     </row>
@@ -4324,10 +5220,10 @@
       <c r="A170" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D170" s="11">
+      <c r="D170" s="2">
         <v>173</v>
       </c>
     </row>
@@ -4335,10 +5231,10 @@
       <c r="A171" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D171" s="11">
+      <c r="D171" s="2">
         <v>174</v>
       </c>
     </row>
@@ -4346,10 +5242,10 @@
       <c r="A172" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D172" s="11">
+      <c r="D172" s="2">
         <v>175</v>
       </c>
     </row>
@@ -4357,10 +5253,10 @@
       <c r="A173" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D173" s="11">
+      <c r="D173" s="2">
         <v>176</v>
       </c>
     </row>
@@ -4368,10 +5264,10 @@
       <c r="A174" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D174" s="11">
+      <c r="D174" s="2">
         <v>177</v>
       </c>
     </row>
@@ -4379,10 +5275,10 @@
       <c r="A175" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D175" s="11">
+      <c r="D175" s="2">
         <v>178</v>
       </c>
     </row>
@@ -4390,10 +5286,10 @@
       <c r="A176" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D176" s="11">
+      <c r="D176" s="2">
         <v>179</v>
       </c>
     </row>
@@ -4401,10 +5297,10 @@
       <c r="A177" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D177" s="11">
+      <c r="D177" s="2">
         <v>180</v>
       </c>
     </row>
@@ -4412,10 +5308,10 @@
       <c r="A178" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D178" s="11">
+      <c r="D178" s="2">
         <v>181</v>
       </c>
     </row>
@@ -4423,10 +5319,10 @@
       <c r="A179" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D179" s="11">
+      <c r="D179" s="2">
         <v>183</v>
       </c>
     </row>
@@ -4434,10 +5330,10 @@
       <c r="A180" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D180" s="11">
+      <c r="D180" s="2">
         <v>184</v>
       </c>
     </row>
@@ -4445,38 +5341,38 @@
       <c r="A181" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D181" s="11">
+      <c r="D181" s="2">
         <v>185</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="12" t="s">
+      <c r="A182" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B182" s="8" t="s">
+      <c r="B182" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C182" s="4" t="s">
+      <c r="C182" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D182" s="11">
+      <c r="D182" s="2">
         <v>186</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="12" t="s">
+      <c r="A183" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C183" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D183" s="11">
+      <c r="D183" s="2">
         <v>187</v>
       </c>
     </row>
@@ -4484,10 +5380,10 @@
       <c r="A184" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D184" s="11">
+      <c r="D184" s="2">
         <v>188</v>
       </c>
     </row>
@@ -4495,10 +5391,10 @@
       <c r="A185" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D185" s="11">
+      <c r="D185" s="2">
         <v>189</v>
       </c>
     </row>
@@ -4506,10 +5402,10 @@
       <c r="A186" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D186" s="11">
+      <c r="D186" s="2">
         <v>190</v>
       </c>
     </row>
@@ -4517,10 +5413,10 @@
       <c r="A187" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="D187" s="11">
+      <c r="D187" s="2">
         <v>191</v>
       </c>
     </row>
@@ -4528,10 +5424,10 @@
       <c r="A188" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B188" s="8" t="s">
+      <c r="B188" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D188" s="11">
+      <c r="D188" s="2">
         <v>192</v>
       </c>
     </row>
@@ -4539,10 +5435,10 @@
       <c r="A189" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D189" s="11">
+      <c r="D189" s="2">
         <v>193</v>
       </c>
     </row>
@@ -4550,10 +5446,10 @@
       <c r="A190" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B190" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D190" s="11">
+      <c r="D190" s="2">
         <v>194</v>
       </c>
     </row>
@@ -4561,10 +5457,10 @@
       <c r="A191" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="B191" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D191" s="11">
+      <c r="D191" s="2">
         <v>195</v>
       </c>
     </row>
@@ -4572,10 +5468,10 @@
       <c r="A192" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D192" s="11">
+      <c r="D192" s="2">
         <v>196</v>
       </c>
     </row>
@@ -4583,10 +5479,10 @@
       <c r="A193" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D193" s="11">
+      <c r="D193" s="2">
         <v>197</v>
       </c>
     </row>
@@ -4594,10 +5490,10 @@
       <c r="A194" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B194" s="8" t="s">
+      <c r="B194" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D194" s="11">
+      <c r="D194" s="2">
         <v>198</v>
       </c>
     </row>
@@ -4605,10 +5501,10 @@
       <c r="A195" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D195" s="11">
+      <c r="D195" s="2">
         <v>199</v>
       </c>
     </row>
@@ -4616,10 +5512,10 @@
       <c r="A196" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D196" s="11">
+      <c r="D196" s="2">
         <v>200</v>
       </c>
     </row>
@@ -4627,10 +5523,10 @@
       <c r="A197" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D197" s="11">
+      <c r="D197" s="2">
         <v>201</v>
       </c>
     </row>
@@ -4638,10 +5534,10 @@
       <c r="A198" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D198" s="11">
+      <c r="D198" s="2">
         <v>202</v>
       </c>
     </row>
@@ -4649,10 +5545,10 @@
       <c r="A199" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D199" s="11">
+      <c r="D199" s="2">
         <v>203</v>
       </c>
     </row>
@@ -4660,10 +5556,10 @@
       <c r="A200" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D200" s="11">
+      <c r="D200" s="2">
         <v>204</v>
       </c>
     </row>
@@ -4671,10 +5567,10 @@
       <c r="A201" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D201" s="11">
+      <c r="D201" s="2">
         <v>205</v>
       </c>
     </row>
@@ -4682,10 +5578,10 @@
       <c r="A202" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D202" s="11">
+      <c r="D202" s="2">
         <v>206</v>
       </c>
     </row>
@@ -4693,10 +5589,10 @@
       <c r="A203" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D203" s="11">
+      <c r="D203" s="2">
         <v>207</v>
       </c>
     </row>
@@ -4704,10 +5600,10 @@
       <c r="A204" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D204" s="11">
+      <c r="D204" s="2">
         <v>208</v>
       </c>
     </row>
@@ -4715,10 +5611,10 @@
       <c r="A205" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D205" s="11">
+      <c r="D205" s="2">
         <v>209</v>
       </c>
     </row>
@@ -4726,1375 +5622,2981 @@
       <c r="A206" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B206" s="8" t="s">
+      <c r="B206" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D206" s="11">
+      <c r="D206" s="2">
         <v>210</v>
       </c>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="5" t="s">
+      <c r="A207" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B207" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D207" s="11">
+      <c r="D207" s="2">
         <v>211</v>
       </c>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="5" t="s">
+      <c r="A208" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D208" s="11">
+      <c r="D208" s="2">
         <v>212</v>
       </c>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D209" s="11">
+      <c r="D209" s="2">
         <v>213</v>
       </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="5" t="s">
+      <c r="A210" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D210" s="11">
+      <c r="D210" s="2">
         <v>214</v>
       </c>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="5" t="s">
+      <c r="A211" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="B211" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D211" s="11">
+      <c r="D211" s="2">
         <v>215</v>
       </c>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="5" t="s">
+      <c r="A212" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B212" s="8" t="s">
+      <c r="B212" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D212" s="11">
+      <c r="D212" s="2">
         <v>216</v>
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="5" t="s">
+      <c r="A213" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B213" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D213" s="11">
+      <c r="D213" s="2">
         <v>217</v>
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="5" t="s">
+      <c r="A214" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B214" s="8" t="s">
+      <c r="B214" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D214" s="11">
+      <c r="D214" s="2">
         <v>218</v>
       </c>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="5" t="s">
+      <c r="A215" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B215" s="8" t="s">
+      <c r="B215" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D215" s="11">
+      <c r="D215" s="2">
         <v>219</v>
       </c>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="5" t="s">
+      <c r="A216" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B216" s="8" t="s">
+      <c r="B216" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="D216" s="11">
+      <c r="D216" s="2">
         <v>220</v>
       </c>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="5" t="s">
+      <c r="A217" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B217" s="8" t="s">
+      <c r="B217" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D217" s="11">
+      <c r="D217" s="2">
         <v>221</v>
       </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="5" t="s">
+      <c r="A218" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B218" s="8" t="s">
+      <c r="B218" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="D218" s="11">
+      <c r="D218" s="2">
         <v>222</v>
       </c>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="5" t="s">
+      <c r="A219" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B219" s="8" t="s">
+      <c r="B219" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D219" s="11">
+      <c r="D219" s="2">
         <v>223</v>
       </c>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="5" t="s">
+      <c r="A220" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="B220" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D220" s="11">
+      <c r="D220" s="2">
         <v>224</v>
       </c>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="5" t="s">
+      <c r="A221" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B221" s="8" t="s">
+      <c r="B221" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D221" s="11">
+      <c r="D221" s="2">
         <v>225</v>
       </c>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="5" t="s">
+      <c r="A222" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B222" s="8" t="s">
+      <c r="B222" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="D222" s="11">
+      <c r="D222" s="2">
         <v>226</v>
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="5" t="s">
+      <c r="A223" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B223" s="8" t="s">
+      <c r="B223" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D223" s="11">
+      <c r="D223" s="2">
         <v>227</v>
       </c>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="5" t="s">
+      <c r="A224" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B224" s="8" t="s">
+      <c r="B224" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D224" s="11">
+      <c r="D224" s="2">
         <v>228</v>
       </c>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="15" t="s">
+      <c r="A225" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B225" s="8" t="s">
+      <c r="B225" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="C225" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D225" s="11">
+      <c r="D225" s="2">
         <v>229</v>
       </c>
     </row>
     <row r="226" spans="1:4">
-      <c r="A226" s="15" t="s">
+      <c r="A226" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B226" s="8" t="s">
+      <c r="B226" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="C226" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D226" s="11">
+      <c r="D226" s="2">
         <v>230</v>
       </c>
     </row>
     <row r="227" spans="1:4">
-      <c r="A227" s="5" t="s">
+      <c r="A227" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B227" s="8" t="s">
+      <c r="B227" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D227" s="11">
+      <c r="D227" s="2">
         <v>231</v>
       </c>
     </row>
     <row r="228" spans="1:4">
-      <c r="A228" s="5" t="s">
+      <c r="A228" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B228" s="8" t="s">
+      <c r="B228" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D228" s="11">
+      <c r="D228" s="2">
         <v>232</v>
       </c>
     </row>
     <row r="229" spans="1:4">
-      <c r="A229" s="5" t="s">
+      <c r="A229" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B229" s="8" t="s">
+      <c r="B229" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D229" s="11">
+      <c r="D229" s="2">
         <v>233</v>
       </c>
     </row>
     <row r="230" spans="1:4">
-      <c r="A230" s="15" t="s">
+      <c r="A230" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B230" s="8" t="s">
+      <c r="B230" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C230" s="4" t="s">
+      <c r="C230" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D230" s="11">
+      <c r="D230" s="2">
         <v>234</v>
       </c>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="5" t="s">
+      <c r="A231" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B231" s="8" t="s">
+      <c r="B231" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D231" s="11">
+      <c r="D231" s="2">
         <v>235</v>
       </c>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="5" t="s">
+      <c r="A232" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B232" s="8" t="s">
+      <c r="B232" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D232" s="11">
+      <c r="D232" s="2">
         <v>236</v>
       </c>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="5" t="s">
+      <c r="A233" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B233" s="8" t="s">
+      <c r="B233" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D233" s="11">
+      <c r="D233" s="2">
         <v>237</v>
       </c>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="5" t="s">
+      <c r="A234" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D234" s="11">
+      <c r="D234" s="2">
         <v>238</v>
       </c>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="15" t="s">
+      <c r="A235" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B235" s="9" t="s">
+      <c r="B235" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C235" s="4" t="s">
+      <c r="C235" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D235" s="11">
+      <c r="D235" s="2">
         <v>239</v>
       </c>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="5" t="s">
+      <c r="A236" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B236" s="8" t="s">
+      <c r="B236" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D236" s="11">
+      <c r="D236" s="2">
         <v>240</v>
       </c>
     </row>
     <row r="237" spans="1:4">
-      <c r="A237" s="5" t="s">
+      <c r="A237" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B237" s="8" t="s">
+      <c r="B237" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D237" s="11">
+      <c r="D237" s="2">
         <v>242</v>
       </c>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="15" t="s">
+      <c r="A238" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B238" s="8" t="s">
+      <c r="B238" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="C238" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D238" s="11">
+      <c r="D238" s="2">
         <v>243</v>
       </c>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="5" t="s">
+      <c r="A239" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B239" s="8" t="s">
+      <c r="B239" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D239" s="11">
+      <c r="D239" s="2">
         <v>244</v>
       </c>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="5" t="s">
+      <c r="A240" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B240" s="8" t="s">
+      <c r="B240" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="D240" s="11">
+      <c r="D240" s="2">
         <v>245</v>
       </c>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="5" t="s">
+      <c r="A241" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B241" s="8" t="s">
+      <c r="B241" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D241" s="11">
+      <c r="D241" s="2">
         <v>246</v>
       </c>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="5" t="s">
+      <c r="A242" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B242" s="8" t="s">
+      <c r="B242" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D242" s="11">
+      <c r="D242" s="2">
         <v>247</v>
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="5" t="s">
+      <c r="A243" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B243" s="8" t="s">
+      <c r="B243" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D243" s="11">
+      <c r="D243" s="2">
         <v>248</v>
       </c>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="15" t="s">
+      <c r="A244" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B244" s="8" t="s">
+      <c r="B244" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C244" s="4" t="s">
+      <c r="C244" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D244" s="11">
+      <c r="D244" s="2">
         <v>249</v>
       </c>
     </row>
     <row r="245" spans="1:4">
-      <c r="A245" s="5" t="s">
+      <c r="A245" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B245" s="8" t="s">
+      <c r="B245" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D245" s="11">
+      <c r="D245" s="2">
         <v>250</v>
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="5" t="s">
+      <c r="A246" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B246" s="8" t="s">
+      <c r="B246" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="D246" s="11">
+      <c r="D246" s="2">
         <v>251</v>
       </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="15" t="s">
+      <c r="A247" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B247" s="8" t="s">
+      <c r="B247" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C247" s="4" t="s">
+      <c r="C247" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D247" s="11">
+      <c r="D247" s="2">
         <v>252</v>
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="5" t="s">
+      <c r="A248" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B248" s="8" t="s">
+      <c r="B248" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D248" s="11">
+      <c r="D248" s="2">
         <v>253</v>
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="15" t="s">
+      <c r="A249" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B249" s="8" t="s">
+      <c r="B249" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C249" s="4" t="s">
+      <c r="C249" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D249" s="11">
+      <c r="D249" s="2">
         <v>254</v>
       </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="5" t="s">
+      <c r="A250" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B250" s="8" t="s">
+      <c r="B250" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D250" s="11">
+      <c r="D250" s="2">
         <v>255</v>
       </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="5" t="s">
+      <c r="A251" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B251" s="8" t="s">
+      <c r="B251" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D251" s="11">
+      <c r="D251" s="2">
         <v>256</v>
       </c>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="15" t="s">
+      <c r="A252" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B252" s="8" t="s">
+      <c r="B252" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C252" s="4" t="s">
+      <c r="C252" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D252" s="11">
+      <c r="D252" s="2">
         <v>257</v>
       </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="5" t="s">
+      <c r="A253" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B253" s="8" t="s">
+      <c r="B253" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D253" s="11">
+      <c r="D253" s="2">
         <v>258</v>
       </c>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="5" t="s">
+      <c r="A254" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B254" s="8" t="s">
+      <c r="B254" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="D254" s="11">
+      <c r="D254" s="2">
         <v>259</v>
       </c>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="5" t="s">
+      <c r="A255" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B255" s="8" t="s">
+      <c r="B255" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D255" s="11">
+      <c r="D255" s="2">
         <v>260</v>
       </c>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="5" t="s">
+      <c r="A256" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B256" s="8" t="s">
+      <c r="B256" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D256" s="11">
+      <c r="D256" s="2">
         <v>261</v>
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="5" t="s">
+      <c r="A257" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B257" s="8" t="s">
+      <c r="B257" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="D257" s="11">
+      <c r="D257" s="2">
         <v>262</v>
       </c>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="15" t="s">
+      <c r="A258" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B258" s="8" t="s">
+      <c r="B258" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C258" s="4" t="s">
+      <c r="C258" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D258" s="11">
+      <c r="D258" s="2">
         <v>263</v>
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="15" t="s">
+      <c r="A259" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B259" s="8" t="s">
+      <c r="B259" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C259" s="4" t="s">
+      <c r="C259" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D259" s="11">
+      <c r="D259" s="2">
         <v>264</v>
       </c>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="5" t="s">
+      <c r="A260" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B260" s="8" t="s">
+      <c r="B260" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="D260" s="11">
+      <c r="D260" s="2">
         <v>265</v>
       </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="5" t="s">
+      <c r="A261" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B261" s="8" t="s">
+      <c r="B261" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D261" s="11">
+      <c r="D261" s="2">
         <v>267</v>
       </c>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="5" t="s">
+      <c r="A262" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B262" s="8" t="s">
+      <c r="B262" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D262" s="11">
+      <c r="D262" s="2">
         <v>268</v>
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="5" t="s">
+      <c r="A263" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B263" s="8" t="s">
+      <c r="B263" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="D263" s="11">
+      <c r="D263" s="2">
         <v>269</v>
       </c>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="5" t="s">
+      <c r="A264" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B264" s="8" t="s">
+      <c r="B264" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="D264" s="11">
+      <c r="D264" s="2">
         <v>270</v>
       </c>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="5" t="s">
+      <c r="A265" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B265" s="8" t="s">
+      <c r="B265" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D265" s="11">
+      <c r="D265" s="2">
         <v>271</v>
       </c>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="5" t="s">
+      <c r="A266" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B266" s="8" t="s">
+      <c r="B266" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="D266" s="11">
+      <c r="D266" s="2">
         <v>272</v>
       </c>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="5" t="s">
+      <c r="A267" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B267" s="8" t="s">
+      <c r="B267" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D267" s="11">
+      <c r="D267" s="2">
         <v>273</v>
       </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="15" t="s">
+      <c r="A268" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B268" s="8" t="s">
+      <c r="B268" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C268" s="4" t="s">
+      <c r="C268" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D268" s="11">
+      <c r="D268" s="2">
         <v>274</v>
       </c>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="5" t="s">
+      <c r="A269" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B269" s="8" t="s">
+      <c r="B269" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D269" s="11">
+      <c r="D269" s="2">
         <v>275</v>
       </c>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="15" t="s">
+      <c r="A270" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B270" s="8" t="s">
+      <c r="B270" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C270" s="4" t="s">
+      <c r="C270" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D270" s="11">
+      <c r="D270" s="2">
         <v>276</v>
       </c>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="5" t="s">
+      <c r="A271" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B271" s="8" t="s">
+      <c r="B271" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D271" s="11">
+      <c r="D271" s="2">
         <v>277</v>
       </c>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="5" t="s">
+      <c r="A272" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B272" s="8" t="s">
+      <c r="B272" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="D272" s="11">
+      <c r="D272" s="2">
         <v>278</v>
       </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="5" t="s">
+      <c r="A273" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B273" s="8" t="s">
+      <c r="B273" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="D273" s="11">
+      <c r="D273" s="2">
         <v>279</v>
       </c>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="5" t="s">
+      <c r="A274" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B274" s="8" t="s">
+      <c r="B274" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D274" s="11">
+      <c r="D274" s="2">
         <v>280</v>
       </c>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="5" t="s">
+      <c r="A275" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B275" s="8" t="s">
+      <c r="B275" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="D275" s="11">
+      <c r="D275" s="2">
         <v>281</v>
       </c>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="5" t="s">
+      <c r="A276" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B276" s="8" t="s">
+      <c r="B276" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D276" s="11">
+      <c r="D276" s="2">
         <v>282</v>
       </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="5" t="s">
+      <c r="A277" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B277" s="8" t="s">
+      <c r="B277" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D277" s="11">
+      <c r="D277" s="2">
         <v>283</v>
       </c>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="5" t="s">
+      <c r="A278" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B278" s="8" t="s">
+      <c r="B278" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="D278" s="11">
+      <c r="D278" s="2">
         <v>284</v>
       </c>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="5" t="s">
+      <c r="A279" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B279" s="8" t="s">
+      <c r="B279" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="D279" s="11">
+      <c r="D279" s="2">
         <v>285</v>
       </c>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="5" t="s">
+      <c r="A280" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B280" s="8" t="s">
+      <c r="B280" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D280" s="11">
+      <c r="D280" s="2">
         <v>286</v>
       </c>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="5" t="s">
+      <c r="A281" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B281" s="8" t="s">
+      <c r="B281" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D281" s="11">
+      <c r="D281" s="2">
         <v>287</v>
       </c>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="5" t="s">
+      <c r="A282" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B282" s="8" t="s">
+      <c r="B282" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D282" s="11">
+      <c r="D282" s="2">
         <v>288</v>
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="15" t="s">
+      <c r="A283" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B283" s="8" t="s">
+      <c r="B283" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C283" s="4" t="s">
+      <c r="C283" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D283" s="11">
+      <c r="D283" s="2">
         <v>289</v>
       </c>
     </row>
     <row r="284" spans="1:4">
-      <c r="A284" s="15" t="s">
+      <c r="A284" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B284" s="8" t="s">
+      <c r="B284" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D284" s="11">
+      <c r="D284" s="2">
         <v>290</v>
       </c>
     </row>
     <row r="285" spans="1:4">
-      <c r="A285" s="5" t="s">
+      <c r="A285" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="B285" s="8" t="s">
+      <c r="B285" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="D285" s="11">
+      <c r="D285" s="2">
         <v>291</v>
       </c>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="5" t="s">
+      <c r="A286" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B286" s="8" t="s">
+      <c r="B286" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D286" s="11">
+      <c r="D286" s="2">
         <v>292</v>
       </c>
     </row>
     <row r="287" spans="1:4">
-      <c r="A287" s="5" t="s">
+      <c r="A287" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B287" s="8" t="s">
+      <c r="B287" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="D287" s="11">
+      <c r="D287" s="2">
         <v>293</v>
       </c>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="15" t="s">
+      <c r="A288" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B288" s="8" t="s">
+      <c r="B288" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C288" s="4" t="s">
+      <c r="C288" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D288" s="11">
+      <c r="D288" s="2">
         <v>294</v>
       </c>
     </row>
     <row r="289" spans="1:4">
-      <c r="A289" s="5" t="s">
+      <c r="A289" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B289" s="8" t="s">
+      <c r="B289" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D289" s="11">
+      <c r="D289" s="2">
         <v>295</v>
       </c>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="5" t="s">
+      <c r="A290" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B290" s="8" t="s">
+      <c r="B290" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="D290" s="11">
+      <c r="D290" s="2">
         <v>297</v>
       </c>
     </row>
     <row r="291" spans="1:4">
-      <c r="A291" s="5" t="s">
+      <c r="A291" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B291" s="8" t="s">
+      <c r="B291" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D291" s="11">
+      <c r="D291" s="2">
         <v>298</v>
       </c>
     </row>
     <row r="292" spans="1:4">
-      <c r="A292" s="15" t="s">
+      <c r="A292" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B292" s="8" t="s">
+      <c r="B292" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C292" s="4" t="s">
+      <c r="C292" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D292" s="11">
+      <c r="D292" s="2">
         <v>299</v>
       </c>
     </row>
     <row r="293" spans="1:4">
-      <c r="A293" s="5" t="s">
+      <c r="A293" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B293" s="8" t="s">
+      <c r="B293" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D293" s="11">
+      <c r="D293" s="2">
         <v>300</v>
       </c>
     </row>
     <row r="294" spans="1:4">
-      <c r="A294" s="5" t="s">
+      <c r="A294" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B294" s="8" t="s">
+      <c r="B294" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="D294" s="11">
+      <c r="D294" s="2">
         <v>301</v>
       </c>
     </row>
     <row r="295" spans="1:4">
-      <c r="A295" s="5" t="s">
+      <c r="A295" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B295" s="8" t="s">
+      <c r="B295" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="D295" s="11">
+      <c r="D295" s="2">
         <v>302</v>
       </c>
     </row>
     <row r="296" spans="1:4">
-      <c r="A296" s="5" t="s">
+      <c r="A296" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B296" s="8" t="s">
+      <c r="B296" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="D296" s="11">
+      <c r="D296" s="2">
         <v>303</v>
       </c>
     </row>
     <row r="297" spans="1:4">
-      <c r="A297" s="5" t="s">
+      <c r="A297" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B297" s="8" t="s">
+      <c r="B297" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D297" s="11">
+      <c r="D297" s="2">
         <v>304</v>
       </c>
     </row>
     <row r="298" spans="1:4">
-      <c r="A298" s="5" t="s">
+      <c r="A298" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B298" s="8" t="s">
+      <c r="B298" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="D298" s="11">
+      <c r="D298" s="2">
         <v>305</v>
       </c>
     </row>
     <row r="299" spans="1:4">
-      <c r="A299" s="5" t="s">
+      <c r="A299" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B299" s="8" t="s">
+      <c r="B299" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="D299" s="11">
+      <c r="D299" s="2">
         <v>306</v>
       </c>
     </row>
     <row r="300" spans="1:4">
-      <c r="A300" s="5" t="s">
+      <c r="A300" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B300" s="8" t="s">
+      <c r="B300" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D300" s="11">
+      <c r="D300" s="2">
         <v>308</v>
       </c>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="5" t="s">
+      <c r="A301" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B301" s="8" t="s">
+      <c r="B301" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D301" s="11">
+      <c r="D301" s="2">
         <v>309</v>
       </c>
     </row>
     <row r="302" spans="1:4">
-      <c r="A302" s="5" t="s">
+      <c r="A302" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B302" s="8" t="s">
+      <c r="B302" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="D302" s="11">
+      <c r="D302" s="2">
         <v>310</v>
       </c>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="5" t="s">
+      <c r="A303" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B303" s="8" t="s">
+      <c r="B303" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D303" s="11">
+      <c r="D303" s="2">
         <v>311</v>
       </c>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="5" t="s">
+      <c r="A304" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B304" s="8" t="s">
+      <c r="B304" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="D304" s="11">
+      <c r="D304" s="2">
         <v>312</v>
       </c>
     </row>
     <row r="305" spans="1:4">
-      <c r="A305" s="5" t="s">
+      <c r="A305" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B305" s="8" t="s">
+      <c r="B305" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="D305" s="11">
+      <c r="D305" s="2">
         <v>313</v>
       </c>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="5" t="s">
+      <c r="A306" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="B306" s="8" t="s">
+      <c r="B306" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="D306" s="11">
+      <c r="D306" s="2">
         <v>314</v>
       </c>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="5" t="s">
+      <c r="A307" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B307" s="8" t="s">
+      <c r="B307" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="D307" s="11">
+      <c r="D307" s="2">
         <v>315</v>
       </c>
     </row>
     <row r="308" spans="1:4">
-      <c r="D308" s="11">
+      <c r="A308" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D308" s="2">
         <v>316</v>
       </c>
     </row>
     <row r="309" spans="1:4">
-      <c r="D309" s="11">
+      <c r="A309" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D309" s="2">
         <v>317</v>
       </c>
     </row>
     <row r="310" spans="1:4">
-      <c r="D310" s="11">
+      <c r="A310" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D310" s="2">
         <v>318</v>
       </c>
     </row>
     <row r="311" spans="1:4">
-      <c r="D311" s="11">
+      <c r="A311" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D311" s="2">
         <v>319</v>
       </c>
     </row>
     <row r="312" spans="1:4">
-      <c r="D312" s="11">
+      <c r="A312" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D312" s="2">
         <v>320</v>
       </c>
     </row>
     <row r="313" spans="1:4">
-      <c r="D313" s="11">
-        <v>320</v>
+      <c r="A313" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D313" s="2">
+        <v>321</v>
       </c>
     </row>
     <row r="314" spans="1:4">
-      <c r="D314" s="11">
-        <v>321</v>
+      <c r="A314" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D314" s="2">
+        <v>322</v>
       </c>
     </row>
     <row r="315" spans="1:4">
-      <c r="D315" s="11">
-        <v>322</v>
+      <c r="A315" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D315" s="2">
+        <v>323</v>
       </c>
     </row>
     <row r="316" spans="1:4">
-      <c r="D316" s="11">
-        <v>323</v>
+      <c r="A316" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D316" s="2">
+        <v>324</v>
       </c>
     </row>
     <row r="317" spans="1:4">
-      <c r="D317" s="11">
-        <v>324</v>
+      <c r="A317" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D317" s="2">
+        <v>325</v>
       </c>
     </row>
     <row r="318" spans="1:4">
-      <c r="D318" s="11">
-        <v>325</v>
+      <c r="A318" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D318" s="2">
+        <v>326</v>
       </c>
     </row>
     <row r="319" spans="1:4">
-      <c r="D319" s="11">
-        <v>326</v>
+      <c r="A319" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="D319" s="2">
+        <v>327</v>
       </c>
     </row>
     <row r="320" spans="1:4">
-      <c r="D320" s="11">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="321" spans="4:4">
-      <c r="D321" s="11">
+      <c r="A320" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D320" s="2">
         <v>328</v>
       </c>
     </row>
-    <row r="322" spans="4:4">
-      <c r="D322" s="11">
+    <row r="321" spans="1:4">
+      <c r="A321" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D321" s="2">
         <v>329</v>
       </c>
     </row>
-    <row r="323" spans="4:4">
-      <c r="D323" s="11">
+    <row r="322" spans="1:4">
+      <c r="A322" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D322" s="2">
         <v>330</v>
       </c>
     </row>
-    <row r="324" spans="4:4">
-      <c r="D324" s="11">
+    <row r="323" spans="1:4">
+      <c r="A323" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="D323" s="2">
         <v>331</v>
       </c>
     </row>
-    <row r="325" spans="4:4">
-      <c r="D325" s="11">
+    <row r="324" spans="1:4">
+      <c r="A324" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D324" s="2">
         <v>332</v>
       </c>
     </row>
-    <row r="326" spans="4:4">
-      <c r="D326" s="11">
+    <row r="325" spans="1:4">
+      <c r="A325" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D325" s="2">
         <v>333</v>
       </c>
     </row>
-    <row r="327" spans="4:4">
-      <c r="D327" s="11">
+    <row r="326" spans="1:4">
+      <c r="A326" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D326" s="2">
         <v>334</v>
       </c>
     </row>
-    <row r="328" spans="4:4">
-      <c r="D328" s="11">
+    <row r="327" spans="1:4">
+      <c r="A327" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D327" s="2">
         <v>335</v>
       </c>
     </row>
-    <row r="329" spans="4:4">
-      <c r="D329" s="11">
+    <row r="328" spans="1:4">
+      <c r="A328" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D328" s="2">
         <v>336</v>
       </c>
     </row>
-    <row r="330" spans="4:4">
-      <c r="D330" s="11">
+    <row r="329" spans="1:4">
+      <c r="A329" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D329" s="2">
         <v>337</v>
       </c>
     </row>
-    <row r="331" spans="4:4">
-      <c r="D331" s="11">
+    <row r="330" spans="1:4">
+      <c r="A330" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D330" s="2">
         <v>338</v>
       </c>
     </row>
-    <row r="332" spans="4:4">
-      <c r="D332" s="11">
+    <row r="331" spans="1:4">
+      <c r="A331" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D331" s="2">
         <v>339</v>
       </c>
     </row>
-    <row r="333" spans="4:4">
-      <c r="D333" s="11">
+    <row r="332" spans="1:4">
+      <c r="A332" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D332" s="2">
         <v>340</v>
       </c>
     </row>
-    <row r="334" spans="4:4">
-      <c r="D334" s="11">
+    <row r="333" spans="1:4">
+      <c r="A333" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D333" s="2">
         <v>341</v>
       </c>
     </row>
-    <row r="335" spans="4:4">
-      <c r="D335" s="11">
+    <row r="334" spans="1:4">
+      <c r="A334" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D334" s="2">
         <v>342</v>
       </c>
     </row>
-    <row r="336" spans="4:4">
-      <c r="D336" s="11">
+    <row r="335" spans="1:4">
+      <c r="A335" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D335" s="2">
         <v>343</v>
       </c>
     </row>
-    <row r="337" spans="4:4">
-      <c r="D337" s="11">
+    <row r="336" spans="1:4">
+      <c r="A336" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D336" s="2">
         <v>344</v>
       </c>
     </row>
-    <row r="338" spans="4:4">
-      <c r="D338" s="11">
+    <row r="337" spans="1:4">
+      <c r="A337" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D337" s="2">
         <v>345</v>
       </c>
     </row>
-    <row r="339" spans="4:4">
-      <c r="D339" s="11">
+    <row r="338" spans="1:4">
+      <c r="A338" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="D338" s="2">
         <v>346</v>
       </c>
     </row>
-    <row r="340" spans="4:4">
-      <c r="D340" s="11">
+    <row r="339" spans="1:4">
+      <c r="A339" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D339" s="2">
         <v>347</v>
       </c>
     </row>
-    <row r="341" spans="4:4">
-      <c r="D341" s="11">
+    <row r="340" spans="1:4">
+      <c r="A340" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D340" s="2">
         <v>348</v>
       </c>
     </row>
-    <row r="342" spans="4:4">
-      <c r="D342" s="11">
+    <row r="341" spans="1:4">
+      <c r="A341" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D341" s="2">
         <v>349</v>
       </c>
     </row>
-    <row r="343" spans="4:4">
-      <c r="D343" s="11">
+    <row r="342" spans="1:4">
+      <c r="A342" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="D342" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="344" spans="4:4">
-      <c r="D344" s="11">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="345" spans="4:4">
-      <c r="D345" s="11">
+    <row r="343" spans="1:4">
+      <c r="A343" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="D343" s="2">
         <v>352</v>
       </c>
     </row>
-    <row r="346" spans="4:4">
-      <c r="D346" s="11">
+    <row r="344" spans="1:4">
+      <c r="A344" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D344" s="2">
         <v>353</v>
       </c>
     </row>
-    <row r="347" spans="4:4">
-      <c r="D347" s="11">
+    <row r="345" spans="1:4">
+      <c r="A345" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D345" s="2">
         <v>354</v>
       </c>
     </row>
-    <row r="348" spans="4:4">
-      <c r="D348" s="11">
+    <row r="346" spans="1:4">
+      <c r="A346" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D346" s="2">
         <v>355</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="D347" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="D348" s="2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D349" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D350" s="2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D351" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D352" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D353" s="2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D354" s="2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D355" s="2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D356" s="2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D357" s="2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="D358" s="2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D359" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D360" s="2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D361" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D362" s="2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D363" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D364" s="2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D365" s="2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D366" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D367" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D368" s="2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D369" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D370" s="2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="D371" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D372" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D373" s="2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="D374" s="2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D375" s="2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D376" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D377" s="2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="D378" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D379" s="2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="D380" s="2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D381" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="D382" s="2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="D383" s="2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="D384" s="2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="D385" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="D386" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="D387" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="D388" s="2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="D389" s="2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="D390" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="D391" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="D392" s="2">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="D393" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="D394" s="2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="D395" s="2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D396" s="2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D397" s="2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D398" s="2">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D399" s="2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="D400" s="2">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="D401" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D402" s="2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="D403" s="2">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="D404" s="2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D405" s="2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="D406" s="2">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="D407" s="2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D408" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D409" s="2">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D410" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D411" s="2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="D412" s="2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="D413" s="2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="D414" s="2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="D415" s="2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="D416" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="D417" s="2">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D418" s="2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="D419" s="2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D420" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D421" s="2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D422" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="D423" s="2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="D424" s="2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D425" s="2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D426" s="2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="D427" s="2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="D428" s="2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D429" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="D430" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="D431" s="2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="D432" s="2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="D433" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="D434" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D435" s="2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="D436" s="2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D437" s="2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D438" s="2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="D439" s="2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D440" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D441" s="2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D442" s="2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="D443" s="2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="D444" s="2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="D445" s="2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="D446" s="2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="D447" s="2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="D448" s="2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D449" s="2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D450" s="2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D451" s="2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="D452" s="2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="D453" s="2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D454" s="2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D455" s="2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="33">
+      <c r="A456" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C456" s="3"/>
+      <c r="D456" s="3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="33">
+      <c r="A457" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="D457" s="2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="33">
+      <c r="A458" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="D458" s="2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="33">
+      <c r="A459" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="33">
+      <c r="A460" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="33">
+      <c r="A461" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D461" s="2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="33">
+      <c r="A462" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="D462" s="2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="33">
+      <c r="A463" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="D463" s="2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="33">
+      <c r="A464" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="D464" s="2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="33">
+      <c r="A465" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="D465" s="2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="33">
+      <c r="A466" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="D466" s="2">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="33">
+      <c r="A467" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="D467" s="2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="33">
+      <c r="A468" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="D468" s="2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="33">
+      <c r="A469" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="D469" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="33">
+      <c r="A470" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="D470" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" ht="33">
+      <c r="A471" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="D471" s="2">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/gunlukarapcakelimeler.xlsx
+++ b/gunlukarapcakelimeler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5EE7EE-11E9-4B45-BF62-8B53AF047FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EB10A1-E633-4ED1-ABC4-D2AD04B4F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="1031">
   <si>
     <t>arabic_word</t>
   </si>
@@ -2857,13 +2857,286 @@
   </si>
   <si>
     <t xml:space="preserve"> هَادِئٌ</t>
+  </si>
+  <si>
+    <t>Gürültü</t>
+  </si>
+  <si>
+    <t>Temiz</t>
+  </si>
+  <si>
+    <t>Kirlilik</t>
+  </si>
+  <si>
+    <t>Kalabalık(isim)</t>
+  </si>
+  <si>
+    <t>Kalabalık(Sıfat)</t>
+  </si>
+  <si>
+    <t>Kalabalık olmak</t>
+  </si>
+  <si>
+    <t>Tren</t>
+  </si>
+  <si>
+    <t>Yarım(yarım saat)</t>
+  </si>
+  <si>
+    <t>Köy</t>
+  </si>
+  <si>
+    <t>Şehir</t>
+  </si>
+  <si>
+    <t>Yolculuk</t>
+  </si>
+  <si>
+    <t>Yola çıkmak</t>
+  </si>
+  <si>
+    <t>Problem,sorun</t>
+  </si>
+  <si>
+    <t>Umre</t>
+  </si>
+  <si>
+    <t>ضَوْضَاءَ</t>
+  </si>
+  <si>
+    <t>نَقِيٌّ</t>
+  </si>
+  <si>
+    <t>تَلَوُّثٌ</t>
+  </si>
+  <si>
+    <t>اِزْدِحَامٌ</t>
+  </si>
+  <si>
+    <t>مُزْدَحِمٌ</t>
+  </si>
+  <si>
+    <t>اِزْدَحَمَ</t>
+  </si>
+  <si>
+    <t>قِطَارٌ</t>
+  </si>
+  <si>
+    <t>نِصْفٌ</t>
+  </si>
+  <si>
+    <t>هُنَا</t>
+  </si>
+  <si>
+    <t>هُنَاكَ</t>
+  </si>
+  <si>
+    <t>قَرْيَةٌ</t>
+  </si>
+  <si>
+    <t>مَدِينَةٌ</t>
+  </si>
+  <si>
+    <t>رِهْلَةٌ</t>
+  </si>
+  <si>
+    <t>رَحَلَ</t>
+  </si>
+  <si>
+    <t>مُشْكِلَةٌ</t>
+  </si>
+  <si>
+    <t>عُمْرَةٌ</t>
+  </si>
+  <si>
+    <t>Orada</t>
+  </si>
+  <si>
+    <t>Burada</t>
+  </si>
+  <si>
+    <t>Umre yapmak</t>
+  </si>
+  <si>
+    <t>Hac yapmak</t>
+  </si>
+  <si>
+    <t>Hobi</t>
+  </si>
+  <si>
+    <t>Hobi edinmek</t>
+  </si>
+  <si>
+    <t>Yolculuk,sefer</t>
+  </si>
+  <si>
+    <t>Mektuplaşma,yazışma</t>
+  </si>
+  <si>
+    <t>Spor</t>
+  </si>
+  <si>
+    <t>Faydalı,yararlı</t>
+  </si>
+  <si>
+    <t>Fuar</t>
+  </si>
+  <si>
+    <t>Reyon,kısım,bölüm</t>
+  </si>
+  <si>
+    <t>Pul</t>
+  </si>
+  <si>
+    <t>Pul koleksiyonculuğu</t>
+  </si>
+  <si>
+    <t>Hat,yazı</t>
+  </si>
+  <si>
+    <t>Arap yazısı</t>
+  </si>
+  <si>
+    <t>اِعْتَمَرَ</t>
+  </si>
+  <si>
+    <t>حَجَّ</t>
+  </si>
+  <si>
+    <t>هِوَايَةٌ</t>
+  </si>
+  <si>
+    <t>مَارَسَ هِوَايَةً</t>
+  </si>
+  <si>
+    <t>سَفَرٌ</t>
+  </si>
+  <si>
+    <t>مُرَاسَلَةٌ</t>
+  </si>
+  <si>
+    <t>رِيَاضَةٌ</t>
+  </si>
+  <si>
+    <t>مُفِيدٌ</t>
+  </si>
+  <si>
+    <t>مَعْرِضٌ</t>
+  </si>
+  <si>
+    <t>جَنَاحٌ</t>
+  </si>
+  <si>
+    <t>طَابَعٌ</t>
+  </si>
+  <si>
+    <t>جَمْعُ الطَّوَابع</t>
+  </si>
+  <si>
+    <t>خَطٌّ</t>
+  </si>
+  <si>
+    <t>اَلْخَطُّ الْعَرَبِيُّ</t>
+  </si>
+  <si>
+    <t>Ayet;mucize</t>
+  </si>
+  <si>
+    <t>Hadis</t>
+  </si>
+  <si>
+    <t>Gazetecilik,Basın</t>
+  </si>
+  <si>
+    <t>Gazeteci</t>
+  </si>
+  <si>
+    <t>Ev idaresi</t>
+  </si>
+  <si>
+    <t>Futbol</t>
+  </si>
+  <si>
+    <t>Basketbol</t>
+  </si>
+  <si>
+    <t>Yüzme,yüzücülük</t>
+  </si>
+  <si>
+    <t>Ata binme,jokeylik</t>
+  </si>
+  <si>
+    <t>Dernek,Cemiyet,Kurum</t>
+  </si>
+  <si>
+    <t>Seçmek</t>
+  </si>
+  <si>
+    <t>Posta</t>
+  </si>
+  <si>
+    <t>Muhabir</t>
+  </si>
+  <si>
+    <t>Pahalı</t>
+  </si>
+  <si>
+    <t>Ucuz</t>
+  </si>
+  <si>
+    <t>آيَةٌ</t>
+  </si>
+  <si>
+    <t>حَدِيثٌ</t>
+  </si>
+  <si>
+    <t>صِحَافَةٌ</t>
+  </si>
+  <si>
+    <t>صِحَافِيّ</t>
+  </si>
+  <si>
+    <t>اَلتَّدْبِيرُ الْمَنْزِلِيّ</t>
+  </si>
+  <si>
+    <t>مَنْزِلٌ</t>
+  </si>
+  <si>
+    <t>كُرَةُالْقَدَمِ</t>
+  </si>
+  <si>
+    <t>كَرَةُالسَّلَّةِ</t>
+  </si>
+  <si>
+    <t>سِبَاحَةٌ</t>
+  </si>
+  <si>
+    <t>فَرُوسِيَّةٌ</t>
+  </si>
+  <si>
+    <t>جَمْعِيَّةٌ</t>
+  </si>
+  <si>
+    <t>اِخْتَارَ</t>
+  </si>
+  <si>
+    <t>بَرِيدٌ</t>
+  </si>
+  <si>
+    <t>مُرَاسِلٌ</t>
+  </si>
+  <si>
+    <t>غَالٍ</t>
+  </si>
+  <si>
+    <t>رَخِيصٌ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2878,26 +3151,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2912,15 +3172,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3256,18 +3513,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14E0EA2-864E-4427-AE73-BA934C3F9A04}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D471"/>
+  <dimension ref="A1:D537"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B474" sqref="B474"/>
+    <sheetView tabSelected="1" topLeftCell="A508" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A518" sqref="A518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="33.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="30.375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
@@ -8428,20 +8685,19 @@
         <v>465</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="33">
-      <c r="A456" s="4" t="s">
+    <row r="456" spans="1:4">
+      <c r="A456" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="B456" s="3" t="s">
+      <c r="B456" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="C456" s="3"/>
-      <c r="D456" s="3">
+      <c r="D456" s="2">
         <v>467</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="33">
-      <c r="A457" s="5" t="s">
+    <row r="457" spans="1:4">
+      <c r="A457" s="1" t="s">
         <v>928</v>
       </c>
       <c r="B457" s="2" t="s">
@@ -8451,8 +8707,8 @@
         <v>468</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="33">
-      <c r="A458" s="5" t="s">
+    <row r="458" spans="1:4">
+      <c r="A458" s="1" t="s">
         <v>935</v>
       </c>
       <c r="B458" s="2" t="s">
@@ -8462,24 +8718,30 @@
         <v>469</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="33">
-      <c r="A459" s="5" t="s">
+    <row r="459" spans="1:4">
+      <c r="A459" s="1" t="s">
         <v>936</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" ht="33">
-      <c r="A460" s="5" t="s">
+      <c r="D459" s="2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="1" t="s">
         <v>937</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" ht="33">
-      <c r="A461" s="5" t="s">
+      <c r="D460" s="2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="1" t="s">
         <v>929</v>
       </c>
       <c r="B461" s="2" t="s">
@@ -8489,8 +8751,8 @@
         <v>470</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="33">
-      <c r="A462" s="5" t="s">
+    <row r="462" spans="1:4">
+      <c r="A462" s="1" t="s">
         <v>938</v>
       </c>
       <c r="B462" s="2" t="s">
@@ -8500,8 +8762,8 @@
         <v>471</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="33">
-      <c r="A463" s="5" t="s">
+    <row r="463" spans="1:4">
+      <c r="A463" s="1" t="s">
         <v>930</v>
       </c>
       <c r="B463" s="2" t="s">
@@ -8511,8 +8773,8 @@
         <v>472</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="33">
-      <c r="A464" s="5" t="s">
+    <row r="464" spans="1:4">
+      <c r="A464" s="1" t="s">
         <v>924</v>
       </c>
       <c r="B464" s="2" t="s">
@@ -8522,8 +8784,8 @@
         <v>473</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="33">
-      <c r="A465" s="5" t="s">
+    <row r="465" spans="1:4">
+      <c r="A465" s="1" t="s">
         <v>925</v>
       </c>
       <c r="B465" s="2" t="s">
@@ -8533,8 +8795,8 @@
         <v>474</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="33">
-      <c r="A466" s="5" t="s">
+    <row r="466" spans="1:4">
+      <c r="A466" s="1" t="s">
         <v>926</v>
       </c>
       <c r="B466" s="2" t="s">
@@ -8544,8 +8806,8 @@
         <v>475</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="33">
-      <c r="A467" s="5" t="s">
+    <row r="467" spans="1:4">
+      <c r="A467" s="1" t="s">
         <v>931</v>
       </c>
       <c r="B467" s="2" t="s">
@@ -8555,8 +8817,8 @@
         <v>476</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="33">
-      <c r="A468" s="5" t="s">
+    <row r="468" spans="1:4">
+      <c r="A468" s="1" t="s">
         <v>932</v>
       </c>
       <c r="B468" s="2" t="s">
@@ -8566,8 +8828,8 @@
         <v>477</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="33">
-      <c r="A469" s="5" t="s">
+    <row r="469" spans="1:4">
+      <c r="A469" s="1" t="s">
         <v>933</v>
       </c>
       <c r="B469" s="2" t="s">
@@ -8577,8 +8839,8 @@
         <v>478</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="33">
-      <c r="A470" s="5" t="s">
+    <row r="470" spans="1:4">
+      <c r="A470" s="1" t="s">
         <v>934</v>
       </c>
       <c r="B470" s="2" t="s">
@@ -8588,8 +8850,8 @@
         <v>479</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="33">
-      <c r="A471" s="5" t="s">
+    <row r="471" spans="1:4">
+      <c r="A471" s="1" t="s">
         <v>939</v>
       </c>
       <c r="B471" s="2" t="s">
@@ -8597,6 +8859,627 @@
       </c>
       <c r="D471" s="2">
         <v>480</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="D472" s="2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="D473" s="2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="D474" s="2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="D475" s="2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="D476" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D477" s="2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="D478" s="2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="D479" s="2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="D480" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="D481" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="D482" s="2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="D483" s="2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="D484" s="2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D485" s="2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="D486" s="2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="D487" s="2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D488" s="2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D489" s="2">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="D490" s="2">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="D491" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="D492" s="2">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="D493" s="2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="D494" s="2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="D495" s="2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="D496" s="2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="D497" s="2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="D498" s="2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="D499" s="2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="D500" s="2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="D501" s="2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D502" s="2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D503" s="2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D504" s="2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D505" s="2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D506" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D507" s="2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D508" s="2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D509" s="2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D510" s="2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D511" s="2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D512" s="2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D513" s="2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D514" s="2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D515" s="2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D516" s="2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D517" s="2">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="D518" s="2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="D519" s="2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="D520" s="2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="D521" s="2">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="D522" s="2">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="D523" s="2">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="D524" s="2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="D525" s="2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="D526" s="2">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="D527" s="2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="D528" s="2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="529" spans="4:4">
+      <c r="D529" s="2">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="530" spans="4:4">
+      <c r="D530" s="2">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="531" spans="4:4">
+      <c r="D531" s="2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="532" spans="4:4">
+      <c r="D532" s="2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="533" spans="4:4">
+      <c r="D533" s="2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="534" spans="4:4">
+      <c r="D534" s="2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="535" spans="4:4">
+      <c r="D535" s="2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="536" spans="4:4">
+      <c r="D536" s="2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="537" spans="4:4">
+      <c r="D537" s="2">
+        <v>545</v>
       </c>
     </row>
   </sheetData>

--- a/gunlukarapcakelimeler.xlsx
+++ b/gunlukarapcakelimeler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EB10A1-E633-4ED1-ABC4-D2AD04B4F61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C575D1FF-5E45-455E-B995-633F4156259B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{530088D5-C0D1-4B54-9791-CDAD199E92DF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="1129">
   <si>
     <t>arabic_word</t>
   </si>
@@ -3130,13 +3130,307 @@
   </si>
   <si>
     <t>رَخِيصٌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غَادَرَ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">وَصْفٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">وَصَفَ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مُوظَّفٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">وَظَّفَ </t>
+  </si>
+  <si>
+    <t>حَجْزٌ</t>
+  </si>
+  <si>
+    <t>حَجَزَ</t>
+  </si>
+  <si>
+    <t>الْـخُطُوطُ التُّرْكِيَّةٌ</t>
+  </si>
+  <si>
+    <t>خُطُوطٌ جَوِّيَّةٌ</t>
+  </si>
+  <si>
+    <t>الْخَطُّ الْحَدِيدِيُّ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تَذْكِرَةٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تَأْشِيرَةٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تَأْشِيرَةُ الْخُرُوجِ </t>
+  </si>
+  <si>
+    <t>تَأْشِيرَةُ الدُّخُولِ</t>
+  </si>
+  <si>
+    <t>Özellik,Nitelik,Vasıf</t>
+  </si>
+  <si>
+    <t>Vasfetmek,Nitelemek,Betimlemek</t>
+  </si>
+  <si>
+    <t>Memur,Görevli,Çalışan</t>
+  </si>
+  <si>
+    <t>Görevlendirmek</t>
+  </si>
+  <si>
+    <t>Rezervasyon</t>
+  </si>
+  <si>
+    <t>Rezervasyon yapmak,Yer ayırtmak</t>
+  </si>
+  <si>
+    <t>Türk Hava Yolları</t>
+  </si>
+  <si>
+    <t>Hava yolları</t>
+  </si>
+  <si>
+    <t>Demir yolu</t>
+  </si>
+  <si>
+    <t>Bilet</t>
+  </si>
+  <si>
+    <t>Vize</t>
+  </si>
+  <si>
+    <t>Çıkış vizesi</t>
+  </si>
+  <si>
+    <t>Giriş vizesi</t>
+  </si>
+  <si>
+    <t>Ayrılmak,Terketmek,Hareket etmek</t>
+  </si>
+  <si>
+    <t>Uçak havalanıyor</t>
+  </si>
+  <si>
+    <t>Subay</t>
+  </si>
+  <si>
+    <t>Gelen,Geliyor</t>
+  </si>
+  <si>
+    <t>İkamet etmek,Oturmak,Yaşamak</t>
+  </si>
+  <si>
+    <t>Otel</t>
+  </si>
+  <si>
+    <t>İyi yolculuklar</t>
+  </si>
+  <si>
+    <t>Güle güle oturun</t>
+  </si>
+  <si>
+    <t>Umren kabul olsun</t>
+  </si>
+  <si>
+    <t>Kaybetmek</t>
+  </si>
+  <si>
+    <t>Açmak</t>
+  </si>
+  <si>
+    <t>Yön</t>
+  </si>
+  <si>
+    <t>Kuzey</t>
+  </si>
+  <si>
+    <t>Güney</t>
+  </si>
+  <si>
+    <t>Doğu</t>
+  </si>
+  <si>
+    <t>Batı</t>
+  </si>
+  <si>
+    <t>تُغَادِرُ الطَّاءِرَةُ</t>
+  </si>
+  <si>
+    <t>ضَابِطٌ</t>
+  </si>
+  <si>
+    <t>قَادِمٌ</t>
+  </si>
+  <si>
+    <t>أَقَامَ</t>
+  </si>
+  <si>
+    <t>فُنْدُقٌ</t>
+  </si>
+  <si>
+    <t>رِحْلَةً سَعِيدَةً</t>
+  </si>
+  <si>
+    <t>إِقَامَةً طَيِّبَةً</t>
+  </si>
+  <si>
+    <t>عُمْرَةً مَقْبُولَةً</t>
+  </si>
+  <si>
+    <t>فَقَدَ</t>
+  </si>
+  <si>
+    <t>فَتَحَ</t>
+  </si>
+  <si>
+    <t>جِهَةٌ</t>
+  </si>
+  <si>
+    <t>شَمَالٌ</t>
+  </si>
+  <si>
+    <t>جَنُوبٌ</t>
+  </si>
+  <si>
+    <t>شَرْقٌ</t>
+  </si>
+  <si>
+    <t>غَرْبٌ</t>
+  </si>
+  <si>
+    <t>أَكّدَ</t>
+  </si>
+  <si>
+    <t>تَأْكِيدُ الْحَجْزِ</t>
+  </si>
+  <si>
+    <t>اَلْأَدَوَاتُ الْمَنْزِلِيَّةُ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شوْكَةٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سِكِّينٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">قِدْرٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">كَأْسٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">كُوبٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">إِبْرِيقٌ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مِكْنَسَةٌ </t>
+  </si>
+  <si>
+    <t>غَسَّالَةٌ</t>
+  </si>
+  <si>
+    <t>سُفْرَةٌ</t>
+  </si>
+  <si>
+    <t>سَلَّةُ نُفَايَاتٍ</t>
+  </si>
+  <si>
+    <t>نُفَايَاةٌ</t>
+  </si>
+  <si>
+    <t>Onaylamak,Konfirmasyon</t>
+  </si>
+  <si>
+    <t>Rezervasyonu onaylatmak</t>
+  </si>
+  <si>
+    <t>Ev eşyaları</t>
+  </si>
+  <si>
+    <t>Çatal</t>
+  </si>
+  <si>
+    <t>Bıçak</t>
+  </si>
+  <si>
+    <t>Tencere</t>
+  </si>
+  <si>
+    <t>Bardak</t>
+  </si>
+  <si>
+    <t>Kupa,Bardak</t>
+  </si>
+  <si>
+    <t>Çaydanlık</t>
+  </si>
+  <si>
+    <t>Süpürge</t>
+  </si>
+  <si>
+    <t>Çamaşır makinası</t>
+  </si>
+  <si>
+    <t>Çöp sepeti</t>
+  </si>
+  <si>
+    <t>Çöp,atık</t>
+  </si>
+  <si>
+    <t>Evli</t>
+  </si>
+  <si>
+    <t>Bekar</t>
+  </si>
+  <si>
+    <t>Hizmet</t>
+  </si>
+  <si>
+    <t>Yazdırmak,dikte ettirmek</t>
+  </si>
+  <si>
+    <t>Geniş</t>
+  </si>
+  <si>
+    <t>Dar</t>
+  </si>
+  <si>
+    <t>Hızlı</t>
+  </si>
+  <si>
+    <t>Yavaş</t>
+  </si>
+  <si>
+    <t>Yüksek</t>
+  </si>
+  <si>
+    <t>Alçak</t>
+  </si>
+  <si>
+    <t>Güçlü</t>
+  </si>
+  <si>
+    <t>Kirli</t>
+  </si>
+  <si>
+    <t>Ağır</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3147,6 +3441,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3172,12 +3473,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3513,17 +3817,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14E0EA2-864E-4427-AE73-BA934C3F9A04}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D537"/>
+  <dimension ref="A1:D599"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A508" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A518" sqref="A518"/>
+    <sheetView tabSelected="1" topLeftCell="A544" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F552" sqref="F552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="30.375" style="2" bestFit="1" customWidth="1"/>
@@ -3537,7 +3841,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>380</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3617,7 +3921,7 @@
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D8" s="2">
@@ -3631,7 +3935,7 @@
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D9" s="2">
@@ -3645,7 +3949,7 @@
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D10" s="2">
@@ -3659,7 +3963,7 @@
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D11" s="2">
@@ -3673,7 +3977,7 @@
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D12" s="2">
@@ -3687,7 +3991,7 @@
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D13" s="2">
@@ -3701,7 +4005,7 @@
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D14" s="2">
@@ -3748,7 +4052,7 @@
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D18" s="2">
@@ -3828,7 +4132,7 @@
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D25" s="2">
@@ -3842,7 +4146,7 @@
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D26" s="2">
@@ -3856,7 +4160,7 @@
       <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D27" s="2">
@@ -4090,7 +4394,7 @@
       <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D48" s="2">
@@ -4104,7 +4408,7 @@
       <c r="B49" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D49" s="2">
@@ -4272,7 +4576,7 @@
       <c r="B64" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D64" s="2">
@@ -4341,7 +4645,7 @@
       <c r="B70" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D70" s="2">
@@ -4355,7 +4659,7 @@
       <c r="B71" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>556</v>
       </c>
       <c r="D71" s="2">
@@ -4930,7 +5234,7 @@
       <c r="B123" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D123" s="2">
@@ -4944,7 +5248,7 @@
       <c r="B124" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D124" s="2">
@@ -5013,7 +5317,7 @@
       <c r="B130" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D130" s="2">
@@ -5027,7 +5331,7 @@
       <c r="B131" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D131" s="2">
@@ -5041,7 +5345,7 @@
       <c r="B132" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D132" s="2">
@@ -5055,7 +5359,7 @@
       <c r="B133" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D133" s="2">
@@ -5069,7 +5373,7 @@
       <c r="B134" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D134" s="2">
@@ -5160,7 +5464,7 @@
       <c r="B142" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D142" s="2">
@@ -5174,7 +5478,7 @@
       <c r="B143" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D143" s="2">
@@ -5188,7 +5492,7 @@
       <c r="B144" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D144" s="2">
@@ -5213,7 +5517,7 @@
       <c r="B146" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D146" s="2">
@@ -5612,7 +5916,7 @@
       <c r="B182" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D182" s="2">
@@ -5626,7 +5930,7 @@
       <c r="B183" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D183" s="2">
@@ -6091,7 +6395,7 @@
       <c r="B225" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D225" s="2">
@@ -6105,7 +6409,7 @@
       <c r="B226" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D226" s="2">
@@ -6152,7 +6456,7 @@
       <c r="B230" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D230" s="2">
@@ -6210,7 +6514,7 @@
       <c r="B235" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D235" s="2">
@@ -6246,7 +6550,7 @@
       <c r="B238" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D238" s="2">
@@ -6315,7 +6619,7 @@
       <c r="B244" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D244" s="2">
@@ -6351,7 +6655,7 @@
       <c r="B247" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D247" s="2">
@@ -6376,7 +6680,7 @@
       <c r="B249" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D249" s="2">
@@ -6412,7 +6716,7 @@
       <c r="B252" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D252" s="2">
@@ -6481,7 +6785,7 @@
       <c r="B258" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D258" s="2">
@@ -6495,7 +6799,7 @@
       <c r="B259" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D259" s="2">
@@ -6597,7 +6901,7 @@
       <c r="B268" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C268" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D268" s="2">
@@ -6622,7 +6926,7 @@
       <c r="B270" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C270" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D270" s="2">
@@ -6768,7 +7072,7 @@
       <c r="B283" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C283" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D283" s="2">
@@ -6826,7 +7130,7 @@
       <c r="B288" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="C288" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D288" s="2">
@@ -6873,7 +7177,7 @@
       <c r="B292" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C292" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D292" s="2">
@@ -7360,7 +7664,7 @@
       <c r="B336" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C336" s="2" t="s">
+      <c r="C336" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D336" s="2">
@@ -7396,7 +7700,7 @@
       <c r="B339" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="C339" s="2" t="s">
+      <c r="C339" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D339" s="2">
@@ -7410,7 +7714,7 @@
       <c r="B340" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="C340" s="2" t="s">
+      <c r="C340" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D340" s="2">
@@ -7479,7 +7783,7 @@
       <c r="B346" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="C346" s="2" t="s">
+      <c r="C346" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D346" s="2">
@@ -8923,7 +9227,7 @@
       <c r="B477" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="C477" s="2" t="s">
+      <c r="C477" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D477" s="2">
@@ -9014,7 +9318,7 @@
       <c r="B485" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="C485" s="2" t="s">
+      <c r="C485" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D485" s="2">
@@ -9050,7 +9354,7 @@
       <c r="B488" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="C488" s="2" t="s">
+      <c r="C488" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D488" s="2">
@@ -9064,7 +9368,7 @@
       <c r="B489" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="C489" s="2" t="s">
+      <c r="C489" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D489" s="2">
@@ -9331,7 +9635,7 @@
       <c r="B513" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="C513" s="2" t="s">
+      <c r="C513" s="1" t="s">
         <v>557</v>
       </c>
       <c r="D513" s="2">
@@ -9383,103 +9687,771 @@
       </c>
     </row>
     <row r="518" spans="1:4">
+      <c r="A518" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>1045</v>
+      </c>
       <c r="D518" s="2">
         <v>526</v>
       </c>
     </row>
     <row r="519" spans="1:4">
+      <c r="A519" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="D519" s="2">
         <v>527</v>
       </c>
     </row>
     <row r="520" spans="1:4">
+      <c r="A520" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>1047</v>
+      </c>
       <c r="D520" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="521" spans="1:4">
+      <c r="A521" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="D521" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="522" spans="1:4">
+      <c r="A522" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>1049</v>
+      </c>
       <c r="D522" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="523" spans="1:4">
+      <c r="A523" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="D523" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="524" spans="1:4">
+      <c r="A524" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>1051</v>
+      </c>
       <c r="D524" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="525" spans="1:4">
+      <c r="A525" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>1052</v>
+      </c>
       <c r="D525" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="526" spans="1:4">
+      <c r="A526" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>1053</v>
+      </c>
       <c r="D526" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="527" spans="1:4">
+      <c r="A527" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>1054</v>
+      </c>
       <c r="D527" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="528" spans="1:4">
+      <c r="A528" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>1055</v>
+      </c>
       <c r="D528" s="2">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="529" spans="4:4">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>1056</v>
+      </c>
       <c r="D529" s="2">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="530" spans="4:4">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>1057</v>
+      </c>
       <c r="D530" s="2">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="531" spans="4:4">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="D531" s="2">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="532" spans="4:4">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>1059</v>
+      </c>
       <c r="D532" s="2">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="533" spans="4:4">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>1060</v>
+      </c>
       <c r="D533" s="2">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="534" spans="4:4">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>1061</v>
+      </c>
       <c r="D534" s="2">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="535" spans="4:4">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="D535" s="2">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="536" spans="4:4">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>1063</v>
+      </c>
       <c r="D536" s="2">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="537" spans="4:4">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>1064</v>
+      </c>
       <c r="D537" s="2">
-        <v>545</v>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D538" s="2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D539" s="2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D540" s="2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D541" s="2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D542" s="2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D543" s="2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D544" s="2">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D545" s="2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D546" s="2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D547" s="2">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D548" s="2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D549" s="2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D550" s="2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D551" s="2">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D552" s="2">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D553" s="2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D554" s="2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D555" s="2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D556" s="2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D557" s="2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D558" s="2">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D559" s="2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D560" s="2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D561" s="2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" ht="90">
+      <c r="A562" s="3"/>
+      <c r="B562" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D562" s="2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" ht="90">
+      <c r="A563" s="3"/>
+      <c r="B563" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D563" s="2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" ht="90">
+      <c r="A564" s="3"/>
+      <c r="B564" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D564" s="2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" ht="90">
+      <c r="A565" s="3"/>
+      <c r="B565" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D565" s="2">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" ht="90">
+      <c r="A566" s="3"/>
+      <c r="B566" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D566" s="2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" ht="90">
+      <c r="A567" s="3"/>
+      <c r="B567" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D567" s="2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" ht="90">
+      <c r="A568" s="3"/>
+      <c r="B568" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D568" s="2">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" ht="90">
+      <c r="A569" s="3"/>
+      <c r="B569" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D569" s="2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" ht="90">
+      <c r="A570" s="3"/>
+      <c r="B570" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D570" s="2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" ht="90">
+      <c r="A571" s="3"/>
+      <c r="B571" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D571" s="2">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" ht="90">
+      <c r="A572" s="3"/>
+      <c r="B572" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D572" s="2">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" ht="90">
+      <c r="A573" s="3"/>
+      <c r="B573" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D573" s="2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" ht="90">
+      <c r="A574" s="3"/>
+      <c r="B574" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="D574" s="2">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" ht="90">
+      <c r="A575" s="3"/>
+      <c r="B575" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D575" s="2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" ht="90">
+      <c r="A576" s="3"/>
+      <c r="B576" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D576" s="2">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" ht="90">
+      <c r="A577" s="3"/>
+      <c r="D577" s="2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" ht="90">
+      <c r="A578" s="3"/>
+      <c r="D578" s="2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" ht="90">
+      <c r="A579" s="3"/>
+      <c r="D579" s="2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" ht="90">
+      <c r="A580" s="3"/>
+      <c r="D580" s="2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" ht="90">
+      <c r="A581" s="3"/>
+      <c r="D581" s="2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" ht="90">
+      <c r="A582" s="3"/>
+      <c r="D582" s="2">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" ht="90">
+      <c r="A583" s="3"/>
+      <c r="D583" s="2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" ht="90">
+      <c r="A584" s="3"/>
+      <c r="D584" s="2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" ht="90">
+      <c r="A585" s="3"/>
+      <c r="D585" s="2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" ht="90">
+      <c r="A586" s="3"/>
+      <c r="D586" s="2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" ht="90">
+      <c r="A587" s="3"/>
+      <c r="D587" s="2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" ht="90">
+      <c r="A588" s="3"/>
+      <c r="D588" s="2">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" ht="90">
+      <c r="A589" s="3"/>
+      <c r="D589" s="2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4">
+      <c r="D590" s="2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="D591" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4">
+      <c r="D592" s="2">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="593" spans="4:4">
+      <c r="D593" s="2">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="594" spans="4:4">
+      <c r="D594" s="2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="595" spans="4:4">
+      <c r="D595" s="2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="596" spans="4:4">
+      <c r="D596" s="2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="597" spans="4:4">
+      <c r="D597" s="2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="598" spans="4:4">
+      <c r="D598" s="2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="599" spans="4:4">
+      <c r="D599" s="2">
+        <v>608</v>
       </c>
     </row>
   </sheetData>
